--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周三001</t>
+          <t>周六001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -557,52 +557,52 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>大阪钢巴</t>
+          <t>湘南海洋</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>5.20</t>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>4.85</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,62 +647,62 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周三002</t>
+          <t>周六002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>伊普斯</t>
+          <t>町田泽维</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>沃特福德</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>18.00</t>
+          <t>神户胜利</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>9.25</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>3.55</t>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>4.10</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,62 +747,62 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周三003</t>
+          <t>周六003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>赫尔城</t>
+          <t>磐城FC</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>2:3</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>米堡</t>
+          <t>清水鼓动</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>9.25</t>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,27 +847,27 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周三004</t>
+          <t>周六004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>马竞</t>
+          <t>蔚山现代</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>多特蒙德</t>
+          <t>江原FC</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -880,29 +880,29 @@
           <t>3.40</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>5.60</t>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,62 +947,62 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周三005</t>
+          <t>周六005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>巴黎圣曼</t>
+          <t>悉尼FC</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2:3</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>巴萨</t>
+          <t>西悉尼</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>3.60</t>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>8.00</t>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周三006</t>
+          <t>周六006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>米竞技</t>
+          <t>基尔</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>罗萨里奥</t>
+          <t>奥斯纳</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>6.00</t>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>4.55</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,62 +1147,62 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周三007</t>
+          <t>周六007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>弗拉门戈</t>
+          <t>纽卡斯尔</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>巴勒斯人</t>
+          <t>热刺</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>4.50</t>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>4.60</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,62 +1247,62 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周四001</t>
+          <t>周六008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>比尔森</t>
+          <t>利兹联</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>佛罗伦萨</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>4.65</t>
+          <t>布莱克本</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,62 +1347,62 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周四002</t>
+          <t>周六009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>利物浦</t>
+          <t>马竞</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>0:3</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>亚特兰大</t>
+          <t>赫罗纳</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>4.30</t>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周四003</t>
+          <t>周六010</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>AC米兰</t>
+          <t>莱切</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>罗马</t>
+          <t>恩波利</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周四004</t>
+          <t>周六011</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>本菲卡</t>
+          <t>阿雅克肖</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>马赛</t>
+          <t>圣埃蒂安</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3.70</t>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周四005</t>
+          <t>周六012</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>勒沃库森</t>
+          <t>米亚尔比</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>西汉姆联</t>
+          <t>索尔纳</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,62 +1747,62 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周四006</t>
+          <t>周六013</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>布鲁日</t>
+          <t>美因茨</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>塞萨洛</t>
+          <t>霍芬海姆</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>5.50</t>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>9.55</t>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,62 +1847,62 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周四007</t>
+          <t>周六014</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>维拉</t>
+          <t>莱红牛</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>里尔</t>
+          <t>沃夫斯堡</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,62 +1947,62 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周四008</t>
+          <t>周六015</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>帕梅拉斯</t>
+          <t>拜仁</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>蒙利物浦</t>
+          <t>科隆</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>4.80</t>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2044,8 +2044,3708 @@
       <c r="W31" s="3" t="inlineStr"/>
       <c r="X31" s="3" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>周六016</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>门兴</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>多特蒙德</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr"/>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr"/>
+      <c r="X32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="3" t="n"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr"/>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
+      <c r="X33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>周六017</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>伯恩利</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>布赖顿</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
+      <c r="X35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>周六018</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>诺丁汉</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>狼队</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
+      <c r="X36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr"/>
+      <c r="X37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>周六019</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>曼城</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>5:1</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>卢顿</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+      <c r="X38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+      <c r="X39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>周六020</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>布伦特</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>谢菲联</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
+      <c r="X40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="3" t="n"/>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
+      <c r="W41" s="3" t="inlineStr"/>
+      <c r="X41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>周六021</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>南安普敦</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>3:2</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>沃特福德</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+      <c r="W42" s="3" t="inlineStr"/>
+      <c r="X42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
+      <c r="W43" s="3" t="inlineStr"/>
+      <c r="X43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>周六022</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>巴列卡诺</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>赫塔费</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr"/>
+      <c r="X44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr"/>
+      <c r="X45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>周六023</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>吉马良斯</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>法伦斯</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
+      <c r="W46" s="3" t="inlineStr"/>
+      <c r="X46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr"/>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr"/>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr"/>
+      <c r="X47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>周六024</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>都灵</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>尤文图斯</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr"/>
+      <c r="Q48" s="3" t="inlineStr"/>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr"/>
+      <c r="X48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr"/>
+      <c r="X49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>周六025</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>伯恩茅斯</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>曼联</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
+      <c r="W50" s="3" t="inlineStr"/>
+      <c r="X50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr"/>
+      <c r="Q51" s="3" t="inlineStr"/>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr"/>
+      <c r="T51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr"/>
+      <c r="W51" s="3" t="inlineStr"/>
+      <c r="X51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>周六026</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>斯图加特</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>法兰克福</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr"/>
+      <c r="T52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr"/>
+      <c r="W52" s="3" t="inlineStr"/>
+      <c r="X52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr"/>
+      <c r="T53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr"/>
+      <c r="W53" s="3" t="inlineStr"/>
+      <c r="X53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>周六027</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>马洛卡</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>皇马</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr"/>
+      <c r="V54" s="3" t="inlineStr"/>
+      <c r="W54" s="3" t="inlineStr"/>
+      <c r="X54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="n"/>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
+      <c r="V55" s="3" t="inlineStr"/>
+      <c r="W55" s="3" t="inlineStr"/>
+      <c r="X55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>周六028</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>波尔多</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>2:3</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>巴斯蒂亚</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr"/>
+      <c r="T56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr"/>
+      <c r="V56" s="3" t="inlineStr"/>
+      <c r="W56" s="3" t="inlineStr"/>
+      <c r="X56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="n"/>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr"/>
+      <c r="Q57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr"/>
+      <c r="T57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="inlineStr"/>
+      <c r="V57" s="3" t="inlineStr"/>
+      <c r="W57" s="3" t="inlineStr"/>
+      <c r="X57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>周六029</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>加的斯</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>巴萨</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="inlineStr"/>
+      <c r="Q58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="inlineStr"/>
+      <c r="S58" s="3" t="inlineStr"/>
+      <c r="T58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="inlineStr"/>
+      <c r="V58" s="3" t="inlineStr"/>
+      <c r="W58" s="3" t="inlineStr"/>
+      <c r="X58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="3" t="n"/>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr"/>
+      <c r="T59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="inlineStr"/>
+      <c r="V59" s="3" t="inlineStr"/>
+      <c r="W59" s="3" t="inlineStr"/>
+      <c r="X59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>周六030</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>雷恩</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>图卢兹</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+      <c r="T60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="inlineStr"/>
+      <c r="V60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr"/>
+      <c r="X60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="n"/>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr"/>
+      <c r="Q61" s="3" t="inlineStr"/>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr"/>
+      <c r="T61" s="3" t="inlineStr"/>
+      <c r="U61" s="3" t="inlineStr"/>
+      <c r="V61" s="3" t="inlineStr"/>
+      <c r="W61" s="3" t="inlineStr"/>
+      <c r="X61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>周六031</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>波特兰</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>洛杉矶FC</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="inlineStr"/>
+      <c r="T62" s="3" t="inlineStr"/>
+      <c r="U62" s="3" t="inlineStr"/>
+      <c r="V62" s="3" t="inlineStr"/>
+      <c r="W62" s="3" t="inlineStr"/>
+      <c r="X62" s="3" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="3" t="n"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
+      <c r="Q63" s="3" t="inlineStr"/>
+      <c r="R63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="inlineStr"/>
+      <c r="T63" s="3" t="inlineStr"/>
+      <c r="U63" s="3" t="inlineStr"/>
+      <c r="V63" s="3" t="inlineStr"/>
+      <c r="W63" s="3" t="inlineStr"/>
+      <c r="X63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>周日001</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>秋田闪电</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>冈山绿雉</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr"/>
+      <c r="T64" s="3" t="inlineStr"/>
+      <c r="U64" s="3" t="inlineStr"/>
+      <c r="V64" s="3" t="inlineStr"/>
+      <c r="W64" s="3" t="inlineStr"/>
+      <c r="X64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="n"/>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr"/>
+      <c r="T65" s="3" t="inlineStr"/>
+      <c r="U65" s="3" t="inlineStr"/>
+      <c r="V65" s="3" t="inlineStr"/>
+      <c r="W65" s="3" t="inlineStr"/>
+      <c r="X65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>周日002</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>大阪钢巴</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>鸟栖沙岩</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="inlineStr"/>
+      <c r="R66" s="3" t="inlineStr"/>
+      <c r="S66" s="3" t="inlineStr"/>
+      <c r="T66" s="3" t="inlineStr"/>
+      <c r="U66" s="3" t="inlineStr"/>
+      <c r="V66" s="3" t="inlineStr"/>
+      <c r="W66" s="3" t="inlineStr"/>
+      <c r="X66" s="3" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="n"/>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr"/>
+      <c r="Q67" s="3" t="inlineStr"/>
+      <c r="R67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr"/>
+      <c r="T67" s="3" t="inlineStr"/>
+      <c r="U67" s="3" t="inlineStr"/>
+      <c r="V67" s="3" t="inlineStr"/>
+      <c r="W67" s="3" t="inlineStr"/>
+      <c r="X67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>周日003</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>仁川联</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>大邱FC</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr"/>
+      <c r="P68" s="3" t="inlineStr"/>
+      <c r="Q68" s="3" t="inlineStr"/>
+      <c r="R68" s="3" t="inlineStr"/>
+      <c r="S68" s="3" t="inlineStr"/>
+      <c r="T68" s="3" t="inlineStr"/>
+      <c r="U68" s="3" t="inlineStr"/>
+      <c r="V68" s="3" t="inlineStr"/>
+      <c r="W68" s="3" t="inlineStr"/>
+      <c r="X68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="3" t="n"/>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
+      <c r="L69" s="3" t="n"/>
+      <c r="M69" s="3" t="inlineStr"/>
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr"/>
+      <c r="P69" s="3" t="inlineStr"/>
+      <c r="Q69" s="3" t="inlineStr"/>
+      <c r="R69" s="3" t="inlineStr"/>
+      <c r="S69" s="3" t="inlineStr"/>
+      <c r="T69" s="3" t="inlineStr"/>
+      <c r="U69" s="3" t="inlineStr"/>
+      <c r="V69" s="3" t="inlineStr"/>
+      <c r="W69" s="3" t="inlineStr"/>
+      <c r="X69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>周日004</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>赫拉克勒</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>海伦芬</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr"/>
+      <c r="N70" s="3" t="inlineStr"/>
+      <c r="O70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr"/>
+      <c r="Q70" s="3" t="inlineStr"/>
+      <c r="R70" s="3" t="inlineStr"/>
+      <c r="S70" s="3" t="inlineStr"/>
+      <c r="T70" s="3" t="inlineStr"/>
+      <c r="U70" s="3" t="inlineStr"/>
+      <c r="V70" s="3" t="inlineStr"/>
+      <c r="W70" s="3" t="inlineStr"/>
+      <c r="X70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="3" t="n"/>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="inlineStr"/>
+      <c r="N71" s="3" t="inlineStr"/>
+      <c r="O71" s="3" t="inlineStr"/>
+      <c r="P71" s="3" t="inlineStr"/>
+      <c r="Q71" s="3" t="inlineStr"/>
+      <c r="R71" s="3" t="inlineStr"/>
+      <c r="S71" s="3" t="inlineStr"/>
+      <c r="T71" s="3" t="inlineStr"/>
+      <c r="U71" s="3" t="inlineStr"/>
+      <c r="V71" s="3" t="inlineStr"/>
+      <c r="W71" s="3" t="inlineStr"/>
+      <c r="X71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>周日005</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>那不勒斯</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>弗洛西诺</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L72" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr"/>
+      <c r="N72" s="3" t="inlineStr"/>
+      <c r="O72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="inlineStr"/>
+      <c r="Q72" s="3" t="inlineStr"/>
+      <c r="R72" s="3" t="inlineStr"/>
+      <c r="S72" s="3" t="inlineStr"/>
+      <c r="T72" s="3" t="inlineStr"/>
+      <c r="U72" s="3" t="inlineStr"/>
+      <c r="V72" s="3" t="inlineStr"/>
+      <c r="W72" s="3" t="inlineStr"/>
+      <c r="X72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="3" t="n"/>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
+      <c r="M73" s="3" t="inlineStr"/>
+      <c r="N73" s="3" t="inlineStr"/>
+      <c r="O73" s="3" t="inlineStr"/>
+      <c r="P73" s="3" t="inlineStr"/>
+      <c r="Q73" s="3" t="inlineStr"/>
+      <c r="R73" s="3" t="inlineStr"/>
+      <c r="S73" s="3" t="inlineStr"/>
+      <c r="T73" s="3" t="inlineStr"/>
+      <c r="U73" s="3" t="inlineStr"/>
+      <c r="V73" s="3" t="inlineStr"/>
+      <c r="W73" s="3" t="inlineStr"/>
+      <c r="X73" s="3" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>周日006</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>圣保利</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>3:4</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>埃沃斯堡</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="K74" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr"/>
+      <c r="N74" s="3" t="inlineStr"/>
+      <c r="O74" s="3" t="inlineStr"/>
+      <c r="P74" s="3" t="inlineStr"/>
+      <c r="Q74" s="3" t="inlineStr"/>
+      <c r="R74" s="3" t="inlineStr"/>
+      <c r="S74" s="3" t="inlineStr"/>
+      <c r="T74" s="3" t="inlineStr"/>
+      <c r="U74" s="3" t="inlineStr"/>
+      <c r="V74" s="3" t="inlineStr"/>
+      <c r="W74" s="3" t="inlineStr"/>
+      <c r="X74" s="3" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="n"/>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
+      <c r="M75" s="3" t="inlineStr"/>
+      <c r="N75" s="3" t="inlineStr"/>
+      <c r="O75" s="3" t="inlineStr"/>
+      <c r="P75" s="3" t="inlineStr"/>
+      <c r="Q75" s="3" t="inlineStr"/>
+      <c r="R75" s="3" t="inlineStr"/>
+      <c r="S75" s="3" t="inlineStr"/>
+      <c r="T75" s="3" t="inlineStr"/>
+      <c r="U75" s="3" t="inlineStr"/>
+      <c r="V75" s="3" t="inlineStr"/>
+      <c r="W75" s="3" t="inlineStr"/>
+      <c r="X75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>周日007</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>拉帕马斯</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>塞维利亚</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr"/>
+      <c r="N76" s="3" t="inlineStr"/>
+      <c r="O76" s="3" t="inlineStr"/>
+      <c r="P76" s="3" t="inlineStr"/>
+      <c r="Q76" s="3" t="inlineStr"/>
+      <c r="R76" s="3" t="inlineStr"/>
+      <c r="S76" s="3" t="inlineStr"/>
+      <c r="T76" s="3" t="inlineStr"/>
+      <c r="U76" s="3" t="inlineStr"/>
+      <c r="V76" s="3" t="inlineStr"/>
+      <c r="W76" s="3" t="inlineStr"/>
+      <c r="X76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="3" t="n"/>
+      <c r="F77" s="3" t="n"/>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+      <c r="I77" s="3" t="n"/>
+      <c r="J77" s="3" t="n"/>
+      <c r="K77" s="3" t="n"/>
+      <c r="L77" s="3" t="n"/>
+      <c r="M77" s="3" t="inlineStr"/>
+      <c r="N77" s="3" t="inlineStr"/>
+      <c r="O77" s="3" t="inlineStr"/>
+      <c r="P77" s="3" t="inlineStr"/>
+      <c r="Q77" s="3" t="inlineStr"/>
+      <c r="R77" s="3" t="inlineStr"/>
+      <c r="S77" s="3" t="inlineStr"/>
+      <c r="T77" s="3" t="inlineStr"/>
+      <c r="U77" s="3" t="inlineStr"/>
+      <c r="V77" s="3" t="inlineStr"/>
+      <c r="W77" s="3" t="inlineStr"/>
+      <c r="X77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>周日008</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>北雪平</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>盖斯</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr"/>
+      <c r="N78" s="3" t="inlineStr"/>
+      <c r="O78" s="3" t="inlineStr"/>
+      <c r="P78" s="3" t="inlineStr"/>
+      <c r="Q78" s="3" t="inlineStr"/>
+      <c r="R78" s="3" t="inlineStr"/>
+      <c r="S78" s="3" t="inlineStr"/>
+      <c r="T78" s="3" t="inlineStr"/>
+      <c r="U78" s="3" t="inlineStr"/>
+      <c r="V78" s="3" t="inlineStr"/>
+      <c r="W78" s="3" t="inlineStr"/>
+      <c r="X78" s="3" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="3" t="n"/>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
+      <c r="M79" s="3" t="inlineStr"/>
+      <c r="N79" s="3" t="inlineStr"/>
+      <c r="O79" s="3" t="inlineStr"/>
+      <c r="P79" s="3" t="inlineStr"/>
+      <c r="Q79" s="3" t="inlineStr"/>
+      <c r="R79" s="3" t="inlineStr"/>
+      <c r="S79" s="3" t="inlineStr"/>
+      <c r="T79" s="3" t="inlineStr"/>
+      <c r="U79" s="3" t="inlineStr"/>
+      <c r="V79" s="3" t="inlineStr"/>
+      <c r="W79" s="3" t="inlineStr"/>
+      <c r="X79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>周日009</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>乌德勒支</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>前进之鹰</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr"/>
+      <c r="N80" s="3" t="inlineStr"/>
+      <c r="O80" s="3" t="inlineStr"/>
+      <c r="P80" s="3" t="inlineStr"/>
+      <c r="Q80" s="3" t="inlineStr"/>
+      <c r="R80" s="3" t="inlineStr"/>
+      <c r="S80" s="3" t="inlineStr"/>
+      <c r="T80" s="3" t="inlineStr"/>
+      <c r="U80" s="3" t="inlineStr"/>
+      <c r="V80" s="3" t="inlineStr"/>
+      <c r="W80" s="3" t="inlineStr"/>
+      <c r="X80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="3" t="n"/>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
+      <c r="M81" s="3" t="inlineStr"/>
+      <c r="N81" s="3" t="inlineStr"/>
+      <c r="O81" s="3" t="inlineStr"/>
+      <c r="P81" s="3" t="inlineStr"/>
+      <c r="Q81" s="3" t="inlineStr"/>
+      <c r="R81" s="3" t="inlineStr"/>
+      <c r="S81" s="3" t="inlineStr"/>
+      <c r="T81" s="3" t="inlineStr"/>
+      <c r="U81" s="3" t="inlineStr"/>
+      <c r="V81" s="3" t="inlineStr"/>
+      <c r="W81" s="3" t="inlineStr"/>
+      <c r="X81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>周日010</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>维京</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>布兰</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L82" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M82" s="3" t="inlineStr"/>
+      <c r="N82" s="3" t="inlineStr"/>
+      <c r="O82" s="3" t="inlineStr"/>
+      <c r="P82" s="3" t="inlineStr"/>
+      <c r="Q82" s="3" t="inlineStr"/>
+      <c r="R82" s="3" t="inlineStr"/>
+      <c r="S82" s="3" t="inlineStr"/>
+      <c r="T82" s="3" t="inlineStr"/>
+      <c r="U82" s="3" t="inlineStr"/>
+      <c r="V82" s="3" t="inlineStr"/>
+      <c r="W82" s="3" t="inlineStr"/>
+      <c r="X82" s="3" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="3" t="n"/>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
+      <c r="M83" s="3" t="inlineStr"/>
+      <c r="N83" s="3" t="inlineStr"/>
+      <c r="O83" s="3" t="inlineStr"/>
+      <c r="P83" s="3" t="inlineStr"/>
+      <c r="Q83" s="3" t="inlineStr"/>
+      <c r="R83" s="3" t="inlineStr"/>
+      <c r="S83" s="3" t="inlineStr"/>
+      <c r="T83" s="3" t="inlineStr"/>
+      <c r="U83" s="3" t="inlineStr"/>
+      <c r="V83" s="3" t="inlineStr"/>
+      <c r="W83" s="3" t="inlineStr"/>
+      <c r="X83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>周日011</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>西汉姆联</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>富勒姆</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr"/>
+      <c r="N84" s="3" t="inlineStr"/>
+      <c r="O84" s="3" t="inlineStr"/>
+      <c r="P84" s="3" t="inlineStr"/>
+      <c r="Q84" s="3" t="inlineStr"/>
+      <c r="R84" s="3" t="inlineStr"/>
+      <c r="S84" s="3" t="inlineStr"/>
+      <c r="T84" s="3" t="inlineStr"/>
+      <c r="U84" s="3" t="inlineStr"/>
+      <c r="V84" s="3" t="inlineStr"/>
+      <c r="W84" s="3" t="inlineStr"/>
+      <c r="X84" s="3" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+      <c r="I85" s="3" t="n"/>
+      <c r="J85" s="3" t="n"/>
+      <c r="K85" s="3" t="n"/>
+      <c r="L85" s="3" t="n"/>
+      <c r="M85" s="3" t="inlineStr"/>
+      <c r="N85" s="3" t="inlineStr"/>
+      <c r="O85" s="3" t="inlineStr"/>
+      <c r="P85" s="3" t="inlineStr"/>
+      <c r="Q85" s="3" t="inlineStr"/>
+      <c r="R85" s="3" t="inlineStr"/>
+      <c r="S85" s="3" t="inlineStr"/>
+      <c r="T85" s="3" t="inlineStr"/>
+      <c r="U85" s="3" t="inlineStr"/>
+      <c r="V85" s="3" t="inlineStr"/>
+      <c r="W85" s="3" t="inlineStr"/>
+      <c r="X85" s="3" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>周日012</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>利物浦</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>水晶宫</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I86" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="L86" s="3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr"/>
+      <c r="N86" s="3" t="inlineStr"/>
+      <c r="O86" s="3" t="inlineStr"/>
+      <c r="P86" s="3" t="inlineStr"/>
+      <c r="Q86" s="3" t="inlineStr"/>
+      <c r="R86" s="3" t="inlineStr"/>
+      <c r="S86" s="3" t="inlineStr"/>
+      <c r="T86" s="3" t="inlineStr"/>
+      <c r="U86" s="3" t="inlineStr"/>
+      <c r="V86" s="3" t="inlineStr"/>
+      <c r="W86" s="3" t="inlineStr"/>
+      <c r="X86" s="3" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="3" t="n"/>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="M87" s="3" t="inlineStr"/>
+      <c r="N87" s="3" t="inlineStr"/>
+      <c r="O87" s="3" t="inlineStr"/>
+      <c r="P87" s="3" t="inlineStr"/>
+      <c r="Q87" s="3" t="inlineStr"/>
+      <c r="R87" s="3" t="inlineStr"/>
+      <c r="S87" s="3" t="inlineStr"/>
+      <c r="T87" s="3" t="inlineStr"/>
+      <c r="U87" s="3" t="inlineStr"/>
+      <c r="V87" s="3" t="inlineStr"/>
+      <c r="W87" s="3" t="inlineStr"/>
+      <c r="X87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>周日013</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>萨索洛</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>3:3</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>AC米兰</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="K88" s="4" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="L88" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr"/>
+      <c r="N88" s="3" t="inlineStr"/>
+      <c r="O88" s="3" t="inlineStr"/>
+      <c r="P88" s="3" t="inlineStr"/>
+      <c r="Q88" s="3" t="inlineStr"/>
+      <c r="R88" s="3" t="inlineStr"/>
+      <c r="S88" s="3" t="inlineStr"/>
+      <c r="T88" s="3" t="inlineStr"/>
+      <c r="U88" s="3" t="inlineStr"/>
+      <c r="V88" s="3" t="inlineStr"/>
+      <c r="W88" s="3" t="inlineStr"/>
+      <c r="X88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+      <c r="E89" s="3" t="n"/>
+      <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
+      <c r="H89" s="3" t="n"/>
+      <c r="I89" s="3" t="n"/>
+      <c r="J89" s="3" t="n"/>
+      <c r="K89" s="3" t="n"/>
+      <c r="L89" s="3" t="n"/>
+      <c r="M89" s="3" t="inlineStr"/>
+      <c r="N89" s="3" t="inlineStr"/>
+      <c r="O89" s="3" t="inlineStr"/>
+      <c r="P89" s="3" t="inlineStr"/>
+      <c r="Q89" s="3" t="inlineStr"/>
+      <c r="R89" s="3" t="inlineStr"/>
+      <c r="S89" s="3" t="inlineStr"/>
+      <c r="T89" s="3" t="inlineStr"/>
+      <c r="U89" s="3" t="inlineStr"/>
+      <c r="V89" s="3" t="inlineStr"/>
+      <c r="W89" s="3" t="inlineStr"/>
+      <c r="X89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>周日014</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>达姆施塔</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>弗赖堡</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I90" s="3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K90" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr"/>
+      <c r="N90" s="3" t="inlineStr"/>
+      <c r="O90" s="3" t="inlineStr"/>
+      <c r="P90" s="3" t="inlineStr"/>
+      <c r="Q90" s="3" t="inlineStr"/>
+      <c r="R90" s="3" t="inlineStr"/>
+      <c r="S90" s="3" t="inlineStr"/>
+      <c r="T90" s="3" t="inlineStr"/>
+      <c r="U90" s="3" t="inlineStr"/>
+      <c r="V90" s="3" t="inlineStr"/>
+      <c r="W90" s="3" t="inlineStr"/>
+      <c r="X90" s="3" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="3" t="n"/>
+      <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
+      <c r="H91" s="3" t="n"/>
+      <c r="I91" s="3" t="n"/>
+      <c r="J91" s="3" t="n"/>
+      <c r="K91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
+      <c r="M91" s="3" t="inlineStr"/>
+      <c r="N91" s="3" t="inlineStr"/>
+      <c r="O91" s="3" t="inlineStr"/>
+      <c r="P91" s="3" t="inlineStr"/>
+      <c r="Q91" s="3" t="inlineStr"/>
+      <c r="R91" s="3" t="inlineStr"/>
+      <c r="S91" s="3" t="inlineStr"/>
+      <c r="T91" s="3" t="inlineStr"/>
+      <c r="U91" s="3" t="inlineStr"/>
+      <c r="V91" s="3" t="inlineStr"/>
+      <c r="W91" s="3" t="inlineStr"/>
+      <c r="X91" s="3" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>周日015</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>芬洛</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>格罗宁根</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I92" s="3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L92" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="M92" s="3" t="inlineStr"/>
+      <c r="N92" s="3" t="inlineStr"/>
+      <c r="O92" s="3" t="inlineStr"/>
+      <c r="P92" s="3" t="inlineStr"/>
+      <c r="Q92" s="3" t="inlineStr"/>
+      <c r="R92" s="3" t="inlineStr"/>
+      <c r="S92" s="3" t="inlineStr"/>
+      <c r="T92" s="3" t="inlineStr"/>
+      <c r="U92" s="3" t="inlineStr"/>
+      <c r="V92" s="3" t="inlineStr"/>
+      <c r="W92" s="3" t="inlineStr"/>
+      <c r="X92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+      <c r="I93" s="3" t="n"/>
+      <c r="J93" s="3" t="n"/>
+      <c r="K93" s="3" t="n"/>
+      <c r="L93" s="3" t="n"/>
+      <c r="M93" s="3" t="inlineStr"/>
+      <c r="N93" s="3" t="inlineStr"/>
+      <c r="O93" s="3" t="inlineStr"/>
+      <c r="P93" s="3" t="inlineStr"/>
+      <c r="Q93" s="3" t="inlineStr"/>
+      <c r="R93" s="3" t="inlineStr"/>
+      <c r="S93" s="3" t="inlineStr"/>
+      <c r="T93" s="3" t="inlineStr"/>
+      <c r="U93" s="3" t="inlineStr"/>
+      <c r="V93" s="3" t="inlineStr"/>
+      <c r="W93" s="3" t="inlineStr"/>
+      <c r="X93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>周日016</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>阿森纳</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>维拉</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I94" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="K94" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="M94" s="3" t="inlineStr"/>
+      <c r="N94" s="3" t="inlineStr"/>
+      <c r="O94" s="3" t="inlineStr"/>
+      <c r="P94" s="3" t="inlineStr"/>
+      <c r="Q94" s="3" t="inlineStr"/>
+      <c r="R94" s="3" t="inlineStr"/>
+      <c r="S94" s="3" t="inlineStr"/>
+      <c r="T94" s="3" t="inlineStr"/>
+      <c r="U94" s="3" t="inlineStr"/>
+      <c r="V94" s="3" t="inlineStr"/>
+      <c r="W94" s="3" t="inlineStr"/>
+      <c r="X94" s="3" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+      <c r="E95" s="3" t="n"/>
+      <c r="F95" s="3" t="n"/>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+      <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
+      <c r="L95" s="3" t="n"/>
+      <c r="M95" s="3" t="inlineStr"/>
+      <c r="N95" s="3" t="inlineStr"/>
+      <c r="O95" s="3" t="inlineStr"/>
+      <c r="P95" s="3" t="inlineStr"/>
+      <c r="Q95" s="3" t="inlineStr"/>
+      <c r="R95" s="3" t="inlineStr"/>
+      <c r="S95" s="3" t="inlineStr"/>
+      <c r="T95" s="3" t="inlineStr"/>
+      <c r="U95" s="3" t="inlineStr"/>
+      <c r="V95" s="3" t="inlineStr"/>
+      <c r="W95" s="3" t="inlineStr"/>
+      <c r="X95" s="3" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>周日017</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>勒沃库森</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>5:0</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>不来梅</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="K96" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr"/>
+      <c r="N96" s="3" t="inlineStr"/>
+      <c r="O96" s="3" t="inlineStr"/>
+      <c r="P96" s="3" t="inlineStr"/>
+      <c r="Q96" s="3" t="inlineStr"/>
+      <c r="R96" s="3" t="inlineStr"/>
+      <c r="S96" s="3" t="inlineStr"/>
+      <c r="T96" s="3" t="inlineStr"/>
+      <c r="U96" s="3" t="inlineStr"/>
+      <c r="V96" s="3" t="inlineStr"/>
+      <c r="W96" s="3" t="inlineStr"/>
+      <c r="X96" s="3" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+      <c r="I97" s="3" t="n"/>
+      <c r="J97" s="3" t="n"/>
+      <c r="K97" s="3" t="n"/>
+      <c r="L97" s="3" t="n"/>
+      <c r="M97" s="3" t="inlineStr"/>
+      <c r="N97" s="3" t="inlineStr"/>
+      <c r="O97" s="3" t="inlineStr"/>
+      <c r="P97" s="3" t="inlineStr"/>
+      <c r="Q97" s="3" t="inlineStr"/>
+      <c r="R97" s="3" t="inlineStr"/>
+      <c r="S97" s="3" t="inlineStr"/>
+      <c r="T97" s="3" t="inlineStr"/>
+      <c r="U97" s="3" t="inlineStr"/>
+      <c r="V97" s="3" t="inlineStr"/>
+      <c r="W97" s="3" t="inlineStr"/>
+      <c r="X97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>周日018</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>乌迪内斯</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>罗马</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="L98" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M98" s="3" t="inlineStr"/>
+      <c r="N98" s="3" t="inlineStr"/>
+      <c r="O98" s="3" t="inlineStr"/>
+      <c r="P98" s="3" t="inlineStr"/>
+      <c r="Q98" s="3" t="inlineStr"/>
+      <c r="R98" s="3" t="inlineStr"/>
+      <c r="S98" s="3" t="inlineStr"/>
+      <c r="T98" s="3" t="inlineStr"/>
+      <c r="U98" s="3" t="inlineStr"/>
+      <c r="V98" s="3" t="inlineStr"/>
+      <c r="W98" s="3" t="inlineStr"/>
+      <c r="X98" s="3" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+      <c r="I99" s="3" t="n"/>
+      <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
+      <c r="L99" s="3" t="n"/>
+      <c r="M99" s="3" t="inlineStr"/>
+      <c r="N99" s="3" t="inlineStr"/>
+      <c r="O99" s="3" t="inlineStr"/>
+      <c r="P99" s="3" t="inlineStr"/>
+      <c r="Q99" s="3" t="inlineStr"/>
+      <c r="R99" s="3" t="inlineStr"/>
+      <c r="S99" s="3" t="inlineStr"/>
+      <c r="T99" s="3" t="inlineStr"/>
+      <c r="U99" s="3" t="inlineStr"/>
+      <c r="V99" s="3" t="inlineStr"/>
+      <c r="W99" s="3" t="inlineStr"/>
+      <c r="X99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>周日019</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>毕尔巴鄂</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>比利亚雷</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="H100" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I100" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="K100" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="L100" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="M100" s="3" t="inlineStr"/>
+      <c r="N100" s="3" t="inlineStr"/>
+      <c r="O100" s="3" t="inlineStr"/>
+      <c r="P100" s="3" t="inlineStr"/>
+      <c r="Q100" s="3" t="inlineStr"/>
+      <c r="R100" s="3" t="inlineStr"/>
+      <c r="S100" s="3" t="inlineStr"/>
+      <c r="T100" s="3" t="inlineStr"/>
+      <c r="U100" s="3" t="inlineStr"/>
+      <c r="V100" s="3" t="inlineStr"/>
+      <c r="W100" s="3" t="inlineStr"/>
+      <c r="X100" s="3" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="3" t="n"/>
+      <c r="F101" s="3" t="n"/>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+      <c r="I101" s="3" t="n"/>
+      <c r="J101" s="3" t="n"/>
+      <c r="K101" s="3" t="n"/>
+      <c r="L101" s="3" t="n"/>
+      <c r="M101" s="3" t="inlineStr"/>
+      <c r="N101" s="3" t="inlineStr"/>
+      <c r="O101" s="3" t="inlineStr"/>
+      <c r="P101" s="3" t="inlineStr"/>
+      <c r="Q101" s="3" t="inlineStr"/>
+      <c r="R101" s="3" t="inlineStr"/>
+      <c r="S101" s="3" t="inlineStr"/>
+      <c r="T101" s="3" t="inlineStr"/>
+      <c r="U101" s="3" t="inlineStr"/>
+      <c r="V101" s="3" t="inlineStr"/>
+      <c r="W101" s="3" t="inlineStr"/>
+      <c r="X101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>周日020</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>亚特联</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>费城</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I102" s="4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K102" s="3" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="L102" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="M102" s="3" t="inlineStr"/>
+      <c r="N102" s="3" t="inlineStr"/>
+      <c r="O102" s="3" t="inlineStr"/>
+      <c r="P102" s="3" t="inlineStr"/>
+      <c r="Q102" s="3" t="inlineStr"/>
+      <c r="R102" s="3" t="inlineStr"/>
+      <c r="S102" s="3" t="inlineStr"/>
+      <c r="T102" s="3" t="inlineStr"/>
+      <c r="U102" s="3" t="inlineStr"/>
+      <c r="V102" s="3" t="inlineStr"/>
+      <c r="W102" s="3" t="inlineStr"/>
+      <c r="X102" s="3" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+      <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="K103" s="3" t="n"/>
+      <c r="L103" s="3" t="n"/>
+      <c r="M103" s="3" t="inlineStr"/>
+      <c r="N103" s="3" t="inlineStr"/>
+      <c r="O103" s="3" t="inlineStr"/>
+      <c r="P103" s="3" t="inlineStr"/>
+      <c r="Q103" s="3" t="inlineStr"/>
+      <c r="R103" s="3" t="inlineStr"/>
+      <c r="S103" s="3" t="inlineStr"/>
+      <c r="T103" s="3" t="inlineStr"/>
+      <c r="U103" s="3" t="inlineStr"/>
+      <c r="V103" s="3" t="inlineStr"/>
+      <c r="W103" s="3" t="inlineStr"/>
+      <c r="X103" s="3" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>周日021</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>国际米兰</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>卡利亚里</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="J104" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K104" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L104" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M104" s="3" t="inlineStr"/>
+      <c r="N104" s="3" t="inlineStr"/>
+      <c r="O104" s="3" t="inlineStr"/>
+      <c r="P104" s="3" t="inlineStr"/>
+      <c r="Q104" s="3" t="inlineStr"/>
+      <c r="R104" s="3" t="inlineStr"/>
+      <c r="S104" s="3" t="inlineStr"/>
+      <c r="T104" s="3" t="inlineStr"/>
+      <c r="U104" s="3" t="inlineStr"/>
+      <c r="V104" s="3" t="inlineStr"/>
+      <c r="W104" s="3" t="inlineStr"/>
+      <c r="X104" s="3" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+      <c r="I105" s="3" t="n"/>
+      <c r="J105" s="3" t="n"/>
+      <c r="K105" s="3" t="n"/>
+      <c r="L105" s="3" t="n"/>
+      <c r="M105" s="3" t="inlineStr"/>
+      <c r="N105" s="3" t="inlineStr"/>
+      <c r="O105" s="3" t="inlineStr"/>
+      <c r="P105" s="3" t="inlineStr"/>
+      <c r="Q105" s="3" t="inlineStr"/>
+      <c r="R105" s="3" t="inlineStr"/>
+      <c r="S105" s="3" t="inlineStr"/>
+      <c r="T105" s="3" t="inlineStr"/>
+      <c r="U105" s="3" t="inlineStr"/>
+      <c r="V105" s="3" t="inlineStr"/>
+      <c r="W105" s="3" t="inlineStr"/>
+      <c r="X105" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="180">
+  <mergeCells count="624">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2061,6 +5761,43 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2076,6 +5813,43 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -2091,6 +5865,43 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2106,6 +5917,43 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2121,6 +5969,43 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -2136,6 +6021,43 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -2151,6 +6073,43 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -2166,6 +6125,43 @@
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -2181,6 +6177,43 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -2196,6 +6229,43 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J104:J105"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -2211,6 +6281,43 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -2226,6 +6333,43 @@
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,12 +547,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周日001</t>
+          <t>周一001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>秋田闪电</t>
+          <t>澳大利23</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -562,47 +562,47 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>冈山绿雉</t>
+          <t>约旦23</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,57 +647,57 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周日002</t>
+          <t>周一002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>大阪钢巴</t>
+          <t>卡塔尔23</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>鸟栖沙岩</t>
+          <t>印度尼西亚U23</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>3.60</t>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -747,12 +747,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周日003</t>
+          <t>周一003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>仁川联</t>
+          <t>佛罗伦萨</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -762,47 +762,47 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>大邱FC</t>
+          <t>热那亚</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,62 +847,62 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周日004</t>
+          <t>周一004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>赫拉克勒</t>
+          <t>亚特兰大</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>海伦芬</t>
+          <t>维罗纳</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>4.30</t>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>4.75</t>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>4.80</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,62 +947,62 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周日005</t>
+          <t>周一005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>那不勒斯</t>
+          <t>切尔西</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>弗洛西诺</t>
+          <t>埃弗顿</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>10.00</t>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周日006</t>
+          <t>周一006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>圣保利</t>
+          <t>奥萨苏纳</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>3:4</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>埃沃斯堡</t>
+          <t>巴伦西亚</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>7.00</t>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>15.00</t>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>55.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,62 +1147,62 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周日007</t>
+          <t>周二001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>拉帕马斯</t>
+          <t>西部联</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>3:3</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>塞维利亚</t>
+          <t>阿德莱德</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>3.05</t>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>5.45</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>28.00</t>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>8.10</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,12 +1247,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周日008</t>
+          <t>周二002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>北雪平</t>
+          <t>日本23</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1262,47 +1262,47 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>盖斯</t>
+          <t>中国23</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,62 +1347,62 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周日009</t>
+          <t>周二003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>乌德勒支</t>
+          <t>伊拉克23</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>前进之鹰</t>
+          <t>泰国23</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周日010</t>
+          <t>周二004</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>维京</t>
+          <t>韩国23</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>布兰</t>
+          <t>阿联酋23</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>4.40</t>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周日011</t>
+          <t>周二006</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>西汉姆联</t>
+          <t>沙特23</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>富勒姆</t>
+          <t>塔吉克斯坦U23</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>4.10</t>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>15.00</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周日012</t>
+          <t>周二007</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>利物浦</t>
+          <t>多特蒙德</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>水晶宫</t>
+          <t>马竞</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>11.00</t>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr">
-        <is>
-          <t>8.20</t>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>17.00</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,62 +1747,62 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周日013</t>
+          <t>周二008</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>萨索洛</t>
+          <t>巴萨</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>3:3</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>AC米兰</t>
+          <t>巴黎圣曼</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>13.50</t>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,62 +1847,62 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周日014</t>
+          <t>周二009</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>达姆施塔</t>
+          <t>南安普敦</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>弗赖堡</t>
+          <t>普雷斯顿</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>6.10</t>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,12 +1947,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周日015</t>
+          <t>周二010</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>芬洛</t>
+          <t>法马利康</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1962,47 +1962,47 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>格罗宁根</t>
+          <t>里斯本</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
           <t>16.00</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2044,1208 +2044,8 @@
       <c r="W31" s="3" t="inlineStr"/>
       <c r="X31" s="3" t="inlineStr"/>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>周日016</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>阿森纳</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>0:2</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>维拉</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>24.00</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="L32" s="3" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="inlineStr"/>
-      <c r="Q32" s="3" t="inlineStr"/>
-      <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
-      <c r="U32" s="3" t="inlineStr"/>
-      <c r="V32" s="3" t="inlineStr"/>
-      <c r="W32" s="3" t="inlineStr"/>
-      <c r="X32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
-      <c r="H33" s="3" t="n"/>
-      <c r="I33" s="3" t="n"/>
-      <c r="J33" s="3" t="n"/>
-      <c r="K33" s="3" t="n"/>
-      <c r="L33" s="3" t="n"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="inlineStr"/>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr"/>
-      <c r="T33" s="3" t="inlineStr"/>
-      <c r="U33" s="3" t="inlineStr"/>
-      <c r="V33" s="3" t="inlineStr"/>
-      <c r="W33" s="3" t="inlineStr"/>
-      <c r="X33" s="3" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>周日017</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>勒沃库森</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>5:0</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>不来梅</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr"/>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr"/>
-      <c r="V34" s="3" t="inlineStr"/>
-      <c r="W34" s="3" t="inlineStr"/>
-      <c r="X34" s="3" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
-      <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="n"/>
-      <c r="L35" s="3" t="n"/>
-      <c r="M35" s="3" t="inlineStr"/>
-      <c r="N35" s="3" t="inlineStr"/>
-      <c r="O35" s="3" t="inlineStr"/>
-      <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="inlineStr"/>
-      <c r="R35" s="3" t="inlineStr"/>
-      <c r="S35" s="3" t="inlineStr"/>
-      <c r="T35" s="3" t="inlineStr"/>
-      <c r="U35" s="3" t="inlineStr"/>
-      <c r="V35" s="3" t="inlineStr"/>
-      <c r="W35" s="3" t="inlineStr"/>
-      <c r="X35" s="3" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>周日018</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>乌迪内斯</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>VS</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>罗马</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="L36" s="3" t="inlineStr">
-        <is>
-          <t>45.00</t>
-        </is>
-      </c>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr"/>
-      <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr"/>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr"/>
-      <c r="W36" s="3" t="inlineStr"/>
-      <c r="X36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="n"/>
-      <c r="L37" s="3" t="n"/>
-      <c r="M37" s="3" t="inlineStr"/>
-      <c r="N37" s="3" t="inlineStr"/>
-      <c r="O37" s="3" t="inlineStr"/>
-      <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr"/>
-      <c r="R37" s="3" t="inlineStr"/>
-      <c r="S37" s="3" t="inlineStr"/>
-      <c r="T37" s="3" t="inlineStr"/>
-      <c r="U37" s="3" t="inlineStr"/>
-      <c r="V37" s="3" t="inlineStr"/>
-      <c r="W37" s="3" t="inlineStr"/>
-      <c r="X37" s="3" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>周日019</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>毕尔巴鄂</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>1:1</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>比利亚雷</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr"/>
-      <c r="R38" s="3" t="inlineStr"/>
-      <c r="S38" s="3" t="inlineStr"/>
-      <c r="T38" s="3" t="inlineStr"/>
-      <c r="U38" s="3" t="inlineStr"/>
-      <c r="V38" s="3" t="inlineStr"/>
-      <c r="W38" s="3" t="inlineStr"/>
-      <c r="X38" s="3" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
-      <c r="H39" s="3" t="n"/>
-      <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="inlineStr"/>
-      <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr"/>
-      <c r="T39" s="3" t="inlineStr"/>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr"/>
-      <c r="W39" s="3" t="inlineStr"/>
-      <c r="X39" s="3" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>周日020</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>亚特联</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>费城</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I40" s="4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="inlineStr">
-        <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="L40" s="3" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="inlineStr"/>
-      <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr"/>
-      <c r="T40" s="3" t="inlineStr"/>
-      <c r="U40" s="3" t="inlineStr"/>
-      <c r="V40" s="3" t="inlineStr"/>
-      <c r="W40" s="3" t="inlineStr"/>
-      <c r="X40" s="3" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="3" t="n"/>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
-      <c r="G41" s="3" t="n"/>
-      <c r="H41" s="3" t="n"/>
-      <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="n"/>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="inlineStr"/>
-      <c r="Q41" s="3" t="inlineStr"/>
-      <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr"/>
-      <c r="T41" s="3" t="inlineStr"/>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
-      <c r="W41" s="3" t="inlineStr"/>
-      <c r="X41" s="3" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>周日021</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>国际米兰</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>卡利亚里</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I42" s="4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="L42" s="3" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr"/>
-      <c r="Q42" s="3" t="inlineStr"/>
-      <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr"/>
-      <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
-      <c r="W42" s="3" t="inlineStr"/>
-      <c r="X42" s="3" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="3" t="n"/>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="3" t="n"/>
-      <c r="E43" s="3" t="n"/>
-      <c r="F43" s="3" t="n"/>
-      <c r="G43" s="3" t="n"/>
-      <c r="H43" s="3" t="n"/>
-      <c r="I43" s="3" t="n"/>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
-      <c r="L43" s="3" t="n"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr"/>
-      <c r="Q43" s="3" t="inlineStr"/>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr"/>
-      <c r="W43" s="3" t="inlineStr"/>
-      <c r="X43" s="3" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>周一001</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>澳大利23</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>约旦23</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="K44" s="3" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="L44" s="3" t="inlineStr">
-        <is>
-          <t>37.00</t>
-        </is>
-      </c>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr"/>
-      <c r="Q44" s="3" t="inlineStr"/>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr"/>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr"/>
-      <c r="W44" s="3" t="inlineStr"/>
-      <c r="X44" s="3" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
-      <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="n"/>
-      <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="n"/>
-      <c r="L45" s="3" t="n"/>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr"/>
-      <c r="Q45" s="3" t="inlineStr"/>
-      <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr"/>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr"/>
-      <c r="W45" s="3" t="inlineStr"/>
-      <c r="X45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>周一002</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>卡塔尔23</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>2:0</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>印度尼西亚U23</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G46" s="4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I46" s="3" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="L46" s="3" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr"/>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="inlineStr"/>
-      <c r="Q46" s="3" t="inlineStr"/>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr"/>
-      <c r="T46" s="3" t="inlineStr"/>
-      <c r="U46" s="3" t="inlineStr"/>
-      <c r="V46" s="3" t="inlineStr"/>
-      <c r="W46" s="3" t="inlineStr"/>
-      <c r="X46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="3" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
-      <c r="H47" s="3" t="n"/>
-      <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="n"/>
-      <c r="K47" s="3" t="n"/>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr"/>
-      <c r="Q47" s="3" t="inlineStr"/>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr"/>
-      <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr"/>
-      <c r="W47" s="3" t="inlineStr"/>
-      <c r="X47" s="3" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>周一003</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>佛罗伦萨</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>1:1</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>热那亚</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G48" s="4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I48" s="3" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="K48" s="3" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="L48" s="3" t="inlineStr">
-        <is>
-          <t>38.00</t>
-        </is>
-      </c>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr"/>
-      <c r="Q48" s="3" t="inlineStr"/>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr"/>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr"/>
-      <c r="W48" s="3" t="inlineStr"/>
-      <c r="X48" s="3" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="3" t="n"/>
-      <c r="C49" s="3" t="n"/>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="3" t="n"/>
-      <c r="F49" s="3" t="n"/>
-      <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="n"/>
-      <c r="I49" s="3" t="n"/>
-      <c r="J49" s="3" t="n"/>
-      <c r="K49" s="3" t="n"/>
-      <c r="L49" s="3" t="n"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr"/>
-      <c r="Q49" s="3" t="inlineStr"/>
-      <c r="R49" s="3" t="inlineStr"/>
-      <c r="S49" s="3" t="inlineStr"/>
-      <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr"/>
-      <c r="V49" s="3" t="inlineStr"/>
-      <c r="W49" s="3" t="inlineStr"/>
-      <c r="X49" s="3" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>周一004</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>亚特兰大</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>维罗纳</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I50" s="4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="L50" s="3" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr"/>
-      <c r="Q50" s="3" t="inlineStr"/>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr"/>
-      <c r="W50" s="3" t="inlineStr"/>
-      <c r="X50" s="3" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="n"/>
-      <c r="C51" s="3" t="n"/>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr"/>
-      <c r="Q51" s="3" t="inlineStr"/>
-      <c r="R51" s="3" t="inlineStr"/>
-      <c r="S51" s="3" t="inlineStr"/>
-      <c r="T51" s="3" t="inlineStr"/>
-      <c r="U51" s="3" t="inlineStr"/>
-      <c r="V51" s="3" t="inlineStr"/>
-      <c r="W51" s="3" t="inlineStr"/>
-      <c r="X51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>周一005</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>切尔西</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>6:0</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>埃弗顿</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>7.70</t>
-        </is>
-      </c>
-      <c r="G52" s="3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="H52" s="3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I52" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="K52" s="4" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="inlineStr"/>
-      <c r="Q52" s="3" t="inlineStr"/>
-      <c r="R52" s="3" t="inlineStr"/>
-      <c r="S52" s="3" t="inlineStr"/>
-      <c r="T52" s="3" t="inlineStr"/>
-      <c r="U52" s="3" t="inlineStr"/>
-      <c r="V52" s="3" t="inlineStr"/>
-      <c r="W52" s="3" t="inlineStr"/>
-      <c r="X52" s="3" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="3" t="n"/>
-      <c r="C53" s="3" t="n"/>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="n"/>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr"/>
-      <c r="Q53" s="3" t="inlineStr"/>
-      <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr"/>
-      <c r="T53" s="3" t="inlineStr"/>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr"/>
-      <c r="W53" s="3" t="inlineStr"/>
-      <c r="X53" s="3" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>周一006</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>奥萨苏纳</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>0:1</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>巴伦西亚</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="I54" s="3" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="L54" s="3" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="inlineStr"/>
-      <c r="Q54" s="3" t="inlineStr"/>
-      <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr"/>
-      <c r="T54" s="3" t="inlineStr"/>
-      <c r="U54" s="3" t="inlineStr"/>
-      <c r="V54" s="3" t="inlineStr"/>
-      <c r="W54" s="3" t="inlineStr"/>
-      <c r="X54" s="3" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="3" t="n"/>
-      <c r="C55" s="3" t="n"/>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="n"/>
-      <c r="J55" s="3" t="n"/>
-      <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr"/>
-      <c r="Q55" s="3" t="inlineStr"/>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr"/>
-      <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr"/>
-      <c r="V55" s="3" t="inlineStr"/>
-      <c r="W55" s="3" t="inlineStr"/>
-      <c r="X55" s="3" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="324">
+  <mergeCells count="180">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -3261,18 +2061,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -3288,18 +2076,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -3315,18 +2091,6 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -3342,18 +2106,6 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -3369,18 +2121,6 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -3396,18 +2136,6 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -3423,18 +2151,6 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -3450,18 +2166,6 @@
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -3477,18 +2181,6 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -3504,18 +2196,6 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -3531,18 +2211,6 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K54:K55"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -3558,18 +2226,6 @@
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,62 +547,62 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周一001</t>
+          <t>周二001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>澳大利23</t>
+          <t>西部联</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>3:3</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>约旦23</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>9.50</t>
+          <t>阿德莱德</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>32.00</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>22.00</t>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>8.10</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,62 +647,62 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周一002</t>
+          <t>周二002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>卡塔尔23</t>
+          <t>日本23</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>印度尼西亚U23</t>
+          <t>中国23</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>3.20</t>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,32 +747,32 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周一003</t>
+          <t>周二003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>佛罗伦萨</t>
+          <t>伊拉克23</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>热那亚</t>
+          <t>泰国23</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -782,27 +782,27 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,62 +847,62 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周一004</t>
+          <t>周二004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>亚特兰大</t>
+          <t>韩国23</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>维罗纳</t>
+          <t>阿联酋23</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>5.85</t>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>4.80</t>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,62 +947,62 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周一005</t>
+          <t>周二005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>切尔西</t>
+          <t>艾因</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>埃弗顿</t>
+          <t>利雅得新月</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周一006</t>
+          <t>周二006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>奥萨苏纳</t>
+          <t>沙特23</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>巴伦西亚</t>
+          <t>塔吉克斯坦U23</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>3.55</t>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>35.00</t>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>15.00</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,62 +1147,62 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周二001</t>
+          <t>周二007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>西部联</t>
+          <t>多特蒙德</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>3:3</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>阿德莱德</t>
+          <t>马竞</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,62 +1247,62 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周二002</t>
+          <t>周二008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>日本23</t>
+          <t>巴萨</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>中国23</t>
+          <t>巴黎圣曼</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>8.75</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>8.00</t>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>17.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,62 +1347,62 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周二003</t>
+          <t>周二009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>伊拉克23</t>
+          <t>南安普敦</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>泰国23</t>
+          <t>普雷斯顿</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周二004</t>
+          <t>周二010</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>韩国23</t>
+          <t>法马利康</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>阿联酋23</t>
+          <t>里斯本</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周二006</t>
+          <t>周三001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>沙特23</t>
+          <t>蔚山现代</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>塔吉克斯坦U23</t>
+          <t>横滨水手</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>5.25</t>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>15.00</t>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周二007</t>
+          <t>周三002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>多特蒙德</t>
+          <t>长崎航海</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>马竞</t>
+          <t>磐田喜悦</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>6.50</t>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,62 +1747,62 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周二008</t>
+          <t>周三003</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>巴萨</t>
+          <t>鹿儿岛联</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>1:4</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>巴黎圣曼</t>
+          <t>东京绿茵</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>8.75</t>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>6.25</t>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,62 +1847,62 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周二009</t>
+          <t>周三004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>南安普敦</t>
+          <t>磐城FC</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>普雷斯顿</t>
+          <t>新泻天鹅</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>3.45</t>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,62 +1947,62 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周二010</t>
+          <t>周三005</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>法马利康</t>
+          <t>乌兹别23</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>里斯本</t>
+          <t>马来23</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2044,8 +2044,408 @@
       <c r="W31" s="3" t="inlineStr"/>
       <c r="X31" s="3" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>周三006</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>越南23</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>科威特U23</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr"/>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr"/>
+      <c r="X32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="3" t="n"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr"/>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
+      <c r="X33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>周三007</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>莫尔德</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>奥德</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
+      <c r="X35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>周三008</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>拜仁</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>阿森纳</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
+      <c r="X36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr"/>
+      <c r="X37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>周三009</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>曼城</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>皇马</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+      <c r="X38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+      <c r="X39" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="180">
+  <mergeCells count="228">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2061,6 +2461,10 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2076,6 +2480,10 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -2091,6 +2499,10 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2106,6 +2518,10 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2121,6 +2537,10 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -2136,6 +2556,10 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -2151,6 +2575,10 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -2166,6 +2594,10 @@
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -2181,6 +2613,10 @@
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -2196,6 +2632,10 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -2211,6 +2651,10 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -2226,6 +2670,10 @@
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,62 +547,62 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周二001</t>
+          <t>周三001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>西部联</t>
+          <t>蔚山现代</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>3:3</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>阿德莱德</t>
+          <t>横滨水手</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>10.00</t>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>8.10</t>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>14.50</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,12 +647,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周二002</t>
+          <t>周三002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>日本23</t>
+          <t>长崎航海</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -662,47 +662,47 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>中国23</t>
+          <t>磐田喜悦</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>17.50</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,62 +747,62 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周二003</t>
+          <t>周三003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>伊拉克23</t>
+          <t>鹿儿岛联</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>泰国23</t>
+          <t>东京绿茵</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
           <t>11.00</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,62 +847,62 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周二004</t>
+          <t>周三004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>韩国23</t>
+          <t>磐城FC</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>阿联酋23</t>
+          <t>新泻天鹅</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>3.45</t>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,37 +947,37 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周二005</t>
+          <t>周三005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>艾因</t>
+          <t>乌兹别23</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>利雅得新月</t>
+          <t>马来23</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>4.20</t>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
@@ -987,22 +987,22 @@
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>12.00</t>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周二006</t>
+          <t>周三006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>沙特23</t>
+          <t>越南23</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>塔吉克斯坦U23</t>
+          <t>科威特U23</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>5.25</t>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>7.85</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
-        <is>
-          <t>15.00</t>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,22 +1147,22 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周二007</t>
+          <t>周三007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>多特蒙德</t>
+          <t>莫尔德</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>马竞</t>
+          <t>奥德</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1180,29 +1180,29 @@
           <t>4.30</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>3.15</t>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
-        <is>
-          <t>17.00</t>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,62 +1247,62 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周二008</t>
+          <t>周三008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>巴萨</t>
+          <t>拜仁</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1:4</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>巴黎圣曼</t>
+          <t>阿森纳</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>8.75</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,42 +1347,42 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周二009</t>
+          <t>周三009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>南安普敦</t>
+          <t>曼城</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>普雷斯顿</t>
+          <t>皇马</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t>3.45</t>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周二010</t>
+          <t>周四001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>法马利康</t>
+          <t>印度尼西亚U23</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>里斯本</t>
+          <t>澳大利23</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周三001</t>
+          <t>周四002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>蔚山现代</t>
+          <t>里尔</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>横滨水手</t>
+          <t>维拉</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>6.50</t>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>3.45</t>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周三002</t>
+          <t>周四003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>长崎航海</t>
+          <t>佛罗伦萨</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>磐田喜悦</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>5.25</t>
+          <t>比尔森</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,12 +1747,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周三003</t>
+          <t>周四004</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>鹿儿岛联</t>
+          <t>亚特兰大</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1762,47 +1762,47 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>东京绿茵</t>
+          <t>利物浦</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,62 +1847,62 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周三004</t>
+          <t>周四005</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>磐城FC</t>
+          <t>罗马</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>新泻天鹅</t>
+          <t>AC米兰</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,62 +1947,62 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周三005</t>
+          <t>周四006</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>乌兹别23</t>
+          <t>马赛</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>马来23</t>
+          <t>本菲卡</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
           <t>16.00</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2047,62 +2047,62 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>周三006</t>
+          <t>周四007</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>越南23</t>
+          <t>西汉姆联</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>科威特U23</t>
+          <t>勒沃库森</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>3.15</t>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>7.85</t>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr"/>
@@ -2144,308 +2144,8 @@
       <c r="W33" s="3" t="inlineStr"/>
       <c r="X33" s="3" t="inlineStr"/>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>周三007</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>莫尔德</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>1:2</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>奥德</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="H34" s="4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr"/>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr"/>
-      <c r="V34" s="3" t="inlineStr"/>
-      <c r="W34" s="3" t="inlineStr"/>
-      <c r="X34" s="3" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
-      <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="n"/>
-      <c r="L35" s="3" t="n"/>
-      <c r="M35" s="3" t="inlineStr"/>
-      <c r="N35" s="3" t="inlineStr"/>
-      <c r="O35" s="3" t="inlineStr"/>
-      <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="inlineStr"/>
-      <c r="R35" s="3" t="inlineStr"/>
-      <c r="S35" s="3" t="inlineStr"/>
-      <c r="T35" s="3" t="inlineStr"/>
-      <c r="U35" s="3" t="inlineStr"/>
-      <c r="V35" s="3" t="inlineStr"/>
-      <c r="W35" s="3" t="inlineStr"/>
-      <c r="X35" s="3" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>周三008</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>拜仁</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>1:0</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>阿森纳</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="L36" s="3" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr"/>
-      <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr"/>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr"/>
-      <c r="W36" s="3" t="inlineStr"/>
-      <c r="X36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="n"/>
-      <c r="L37" s="3" t="n"/>
-      <c r="M37" s="3" t="inlineStr"/>
-      <c r="N37" s="3" t="inlineStr"/>
-      <c r="O37" s="3" t="inlineStr"/>
-      <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr"/>
-      <c r="R37" s="3" t="inlineStr"/>
-      <c r="S37" s="3" t="inlineStr"/>
-      <c r="T37" s="3" t="inlineStr"/>
-      <c r="U37" s="3" t="inlineStr"/>
-      <c r="V37" s="3" t="inlineStr"/>
-      <c r="W37" s="3" t="inlineStr"/>
-      <c r="X37" s="3" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>周三009</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>曼城</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>1:1</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>皇马</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr"/>
-      <c r="R38" s="3" t="inlineStr"/>
-      <c r="S38" s="3" t="inlineStr"/>
-      <c r="T38" s="3" t="inlineStr"/>
-      <c r="U38" s="3" t="inlineStr"/>
-      <c r="V38" s="3" t="inlineStr"/>
-      <c r="W38" s="3" t="inlineStr"/>
-      <c r="X38" s="3" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
-      <c r="H39" s="3" t="n"/>
-      <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="inlineStr"/>
-      <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr"/>
-      <c r="T39" s="3" t="inlineStr"/>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr"/>
-      <c r="W39" s="3" t="inlineStr"/>
-      <c r="X39" s="3" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="228">
+  <mergeCells count="192">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2462,9 +2162,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2481,9 +2178,6 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -2500,9 +2194,6 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2519,9 +2210,6 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2538,9 +2226,6 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -2557,9 +2242,6 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -2576,9 +2258,6 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -2595,9 +2274,6 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -2614,9 +2290,6 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -2633,9 +2306,6 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -2652,9 +2322,6 @@
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -2671,9 +2338,6 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,62 +547,62 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周三001</t>
+          <t>周六001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>蔚山现代</t>
+          <t>鸟栖沙岩</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>横滨水手</t>
+          <t>鹿岛鹿角</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>6.50</t>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>14.50</t>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>23.00</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,62 +647,62 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周三002</t>
+          <t>周六002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>长崎航海</t>
+          <t>清水鼓动</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>3:2</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>磐田喜悦</t>
+          <t>仙台七夕</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>5.25</t>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>8.75</t>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,62 +747,62 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周三003</t>
+          <t>周六003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>鹿儿岛联</t>
+          <t>西悉尼</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>东京绿茵</t>
+          <t>墨尔本城</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>24.00</t>
-        </is>
-      </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,62 +847,62 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周三004</t>
+          <t>周六004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>磐城FC</t>
+          <t>湘南海洋</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>新泻天鹅</t>
+          <t>神户胜利</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>3.35</t>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,62 +947,62 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周三005</t>
+          <t>周六005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>乌兹别23</t>
+          <t>浦和红钻</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>马来23</t>
+          <t>大阪钢巴</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>3.80</t>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周三006</t>
+          <t>周六006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>越南23</t>
+          <t>墨胜利</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>科威特U23</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>7.00</t>
+          <t>布里斯班</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>21.00</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>7.85</t>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,62 +1147,62 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周三007</t>
+          <t>周六007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>莫尔德</t>
+          <t>首尔FC</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>2:3</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>奥德</t>
+          <t>全北现代</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,12 +1247,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周三008</t>
+          <t>周六008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>拜仁</t>
+          <t>麦克阿瑟FC</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1262,47 +1262,47 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>阿森纳</t>
+          <t>悉尼FC</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,12 +1347,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周三009</t>
+          <t>周六009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>曼城</t>
+          <t>凯泽</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1362,47 +1362,47 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>皇马</t>
+          <t>韦恩</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周四001</t>
+          <t>周六010</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>印度尼西亚U23</t>
+          <t>莱切斯特</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>澳大利23</t>
+          <t>西布罗姆</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>6.50</t>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>3.85</t>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周四002</t>
+          <t>周六011</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>里尔</t>
+          <t>塞尔塔</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>维拉</t>
+          <t>拉帕马斯</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>8.75</t>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周四003</t>
+          <t>周六012</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>佛罗伦萨</t>
+          <t>马来23</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>比尔森</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>12.50</t>
+          <t>越南23</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>3.45</t>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,62 +1747,62 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周四004</t>
+          <t>周六013</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>亚特兰大</t>
+          <t>罗德兹</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>利物浦</t>
+          <t>欧塞尔</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>5.40</t>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,47 +1847,47 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周四005</t>
+          <t>周六014</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>罗马</t>
+          <t>哥德堡</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>AC米兰</t>
+          <t>北雪平</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>3.60</t>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1897,12 +1897,12 @@
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,12 +1947,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周四006</t>
+          <t>周六015</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>马赛</t>
+          <t>沃夫斯堡</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1962,47 +1962,47 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>本菲卡</t>
+          <t>波鸿</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2047,62 +2047,62 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>周四007</t>
+          <t>周六016</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>西汉姆联</t>
+          <t>海登海姆</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>勒沃库森</t>
+          <t>莱红牛</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>3.65</t>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr"/>
@@ -2144,8 +2144,4108 @@
       <c r="W33" s="3" t="inlineStr"/>
       <c r="X33" s="3" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>周六017</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>霍芬海姆</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>4:3</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>门兴</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
+      <c r="X35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>周六018</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>谢菲联</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>1:4</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>伯恩利</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
+      <c r="X36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr"/>
+      <c r="X37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>周六019</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>卢顿</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>1:5</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>布伦特</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+      <c r="X38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+      <c r="X39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>周六020</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>斯托克城</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>普利茅斯</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
+      <c r="X40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="3" t="n"/>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
+      <c r="W41" s="3" t="inlineStr"/>
+      <c r="X41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>周六021</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>诺维奇</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>布城</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+      <c r="W42" s="3" t="inlineStr"/>
+      <c r="X42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
+      <c r="W43" s="3" t="inlineStr"/>
+      <c r="X43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>周六022</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>巴列卡诺</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>奥萨苏纳</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr"/>
+      <c r="X44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr"/>
+      <c r="X45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>周六023</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>海牙</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>埃因FC</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
+      <c r="W46" s="3" t="inlineStr"/>
+      <c r="X46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr"/>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr"/>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr"/>
+      <c r="X47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>周六024</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>科威特U23</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>0:5</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>乌兹别23</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr"/>
+      <c r="Q48" s="3" t="inlineStr"/>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr"/>
+      <c r="X48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr"/>
+      <c r="X49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>周六025</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>恩波利</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>那不勒斯</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
+      <c r="W50" s="3" t="inlineStr"/>
+      <c r="X50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr"/>
+      <c r="Q51" s="3" t="inlineStr"/>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr"/>
+      <c r="T51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr"/>
+      <c r="W51" s="3" t="inlineStr"/>
+      <c r="X51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>周六026</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>曼城</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>切尔西</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr"/>
+      <c r="T52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr"/>
+      <c r="W52" s="3" t="inlineStr"/>
+      <c r="X52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr"/>
+      <c r="T53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr"/>
+      <c r="W53" s="3" t="inlineStr"/>
+      <c r="X53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>周六027</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>柏林联合</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>1:5</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>拜仁</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr"/>
+      <c r="V54" s="3" t="inlineStr"/>
+      <c r="W54" s="3" t="inlineStr"/>
+      <c r="X54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="n"/>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
+      <c r="V55" s="3" t="inlineStr"/>
+      <c r="W55" s="3" t="inlineStr"/>
+      <c r="X55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>周六028</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>狼队</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>阿森纳</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr"/>
+      <c r="T56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr"/>
+      <c r="V56" s="3" t="inlineStr"/>
+      <c r="W56" s="3" t="inlineStr"/>
+      <c r="X56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="n"/>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr"/>
+      <c r="Q57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr"/>
+      <c r="T57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="inlineStr"/>
+      <c r="V57" s="3" t="inlineStr"/>
+      <c r="W57" s="3" t="inlineStr"/>
+      <c r="X57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>周六029</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>布拉加</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>维兹拉</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="inlineStr"/>
+      <c r="Q58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="inlineStr"/>
+      <c r="S58" s="3" t="inlineStr"/>
+      <c r="T58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="inlineStr"/>
+      <c r="V58" s="3" t="inlineStr"/>
+      <c r="W58" s="3" t="inlineStr"/>
+      <c r="X58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="3" t="n"/>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr"/>
+      <c r="T59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="inlineStr"/>
+      <c r="V59" s="3" t="inlineStr"/>
+      <c r="W59" s="3" t="inlineStr"/>
+      <c r="X59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>周六030</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>哥伦布</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>波特兰</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+      <c r="T60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="inlineStr"/>
+      <c r="V60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr"/>
+      <c r="X60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="n"/>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr"/>
+      <c r="Q61" s="3" t="inlineStr"/>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr"/>
+      <c r="T61" s="3" t="inlineStr"/>
+      <c r="U61" s="3" t="inlineStr"/>
+      <c r="V61" s="3" t="inlineStr"/>
+      <c r="W61" s="3" t="inlineStr"/>
+      <c r="X61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>周日001</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>千叶市原</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>秋田闪电</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="inlineStr"/>
+      <c r="T62" s="3" t="inlineStr"/>
+      <c r="U62" s="3" t="inlineStr"/>
+      <c r="V62" s="3" t="inlineStr"/>
+      <c r="W62" s="3" t="inlineStr"/>
+      <c r="X62" s="3" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="3" t="n"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
+      <c r="Q63" s="3" t="inlineStr"/>
+      <c r="R63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="inlineStr"/>
+      <c r="T63" s="3" t="inlineStr"/>
+      <c r="U63" s="3" t="inlineStr"/>
+      <c r="V63" s="3" t="inlineStr"/>
+      <c r="W63" s="3" t="inlineStr"/>
+      <c r="X63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>周日002</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>名古屋鲸</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>大阪樱花</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr"/>
+      <c r="T64" s="3" t="inlineStr"/>
+      <c r="U64" s="3" t="inlineStr"/>
+      <c r="V64" s="3" t="inlineStr"/>
+      <c r="W64" s="3" t="inlineStr"/>
+      <c r="X64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="n"/>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr"/>
+      <c r="T65" s="3" t="inlineStr"/>
+      <c r="U65" s="3" t="inlineStr"/>
+      <c r="V65" s="3" t="inlineStr"/>
+      <c r="W65" s="3" t="inlineStr"/>
+      <c r="X65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>周日003</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>珀斯</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:4</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>西部联</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="inlineStr"/>
+      <c r="R66" s="3" t="inlineStr"/>
+      <c r="S66" s="3" t="inlineStr"/>
+      <c r="T66" s="3" t="inlineStr"/>
+      <c r="U66" s="3" t="inlineStr"/>
+      <c r="V66" s="3" t="inlineStr"/>
+      <c r="W66" s="3" t="inlineStr"/>
+      <c r="X66" s="3" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="n"/>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr"/>
+      <c r="Q67" s="3" t="inlineStr"/>
+      <c r="R67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr"/>
+      <c r="T67" s="3" t="inlineStr"/>
+      <c r="U67" s="3" t="inlineStr"/>
+      <c r="V67" s="3" t="inlineStr"/>
+      <c r="W67" s="3" t="inlineStr"/>
+      <c r="X67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>周日004</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>萨索洛</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>0:3</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>莱切</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr"/>
+      <c r="P68" s="3" t="inlineStr"/>
+      <c r="Q68" s="3" t="inlineStr"/>
+      <c r="R68" s="3" t="inlineStr"/>
+      <c r="S68" s="3" t="inlineStr"/>
+      <c r="T68" s="3" t="inlineStr"/>
+      <c r="U68" s="3" t="inlineStr"/>
+      <c r="V68" s="3" t="inlineStr"/>
+      <c r="W68" s="3" t="inlineStr"/>
+      <c r="X68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="3" t="n"/>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
+      <c r="L69" s="3" t="n"/>
+      <c r="M69" s="3" t="inlineStr"/>
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr"/>
+      <c r="P69" s="3" t="inlineStr"/>
+      <c r="Q69" s="3" t="inlineStr"/>
+      <c r="R69" s="3" t="inlineStr"/>
+      <c r="S69" s="3" t="inlineStr"/>
+      <c r="T69" s="3" t="inlineStr"/>
+      <c r="U69" s="3" t="inlineStr"/>
+      <c r="V69" s="3" t="inlineStr"/>
+      <c r="W69" s="3" t="inlineStr"/>
+      <c r="X69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>周日005</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>布莱克本</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1:3</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>谢周三</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr"/>
+      <c r="N70" s="3" t="inlineStr"/>
+      <c r="O70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr"/>
+      <c r="Q70" s="3" t="inlineStr"/>
+      <c r="R70" s="3" t="inlineStr"/>
+      <c r="S70" s="3" t="inlineStr"/>
+      <c r="T70" s="3" t="inlineStr"/>
+      <c r="U70" s="3" t="inlineStr"/>
+      <c r="V70" s="3" t="inlineStr"/>
+      <c r="W70" s="3" t="inlineStr"/>
+      <c r="X70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="3" t="n"/>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="inlineStr"/>
+      <c r="N71" s="3" t="inlineStr"/>
+      <c r="O71" s="3" t="inlineStr"/>
+      <c r="P71" s="3" t="inlineStr"/>
+      <c r="Q71" s="3" t="inlineStr"/>
+      <c r="R71" s="3" t="inlineStr"/>
+      <c r="S71" s="3" t="inlineStr"/>
+      <c r="T71" s="3" t="inlineStr"/>
+      <c r="U71" s="3" t="inlineStr"/>
+      <c r="V71" s="3" t="inlineStr"/>
+      <c r="W71" s="3" t="inlineStr"/>
+      <c r="X71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>周日006</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>卡斯鲁厄</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>3:2</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>柏林赫塔</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="L72" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr"/>
+      <c r="N72" s="3" t="inlineStr"/>
+      <c r="O72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="inlineStr"/>
+      <c r="Q72" s="3" t="inlineStr"/>
+      <c r="R72" s="3" t="inlineStr"/>
+      <c r="S72" s="3" t="inlineStr"/>
+      <c r="T72" s="3" t="inlineStr"/>
+      <c r="U72" s="3" t="inlineStr"/>
+      <c r="V72" s="3" t="inlineStr"/>
+      <c r="W72" s="3" t="inlineStr"/>
+      <c r="X72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="3" t="n"/>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
+      <c r="M73" s="3" t="inlineStr"/>
+      <c r="N73" s="3" t="inlineStr"/>
+      <c r="O73" s="3" t="inlineStr"/>
+      <c r="P73" s="3" t="inlineStr"/>
+      <c r="Q73" s="3" t="inlineStr"/>
+      <c r="R73" s="3" t="inlineStr"/>
+      <c r="S73" s="3" t="inlineStr"/>
+      <c r="T73" s="3" t="inlineStr"/>
+      <c r="U73" s="3" t="inlineStr"/>
+      <c r="V73" s="3" t="inlineStr"/>
+      <c r="W73" s="3" t="inlineStr"/>
+      <c r="X73" s="3" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>周日007</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>赫塔费</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>皇家社会</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="K74" s="3" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="L74" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr"/>
+      <c r="N74" s="3" t="inlineStr"/>
+      <c r="O74" s="3" t="inlineStr"/>
+      <c r="P74" s="3" t="inlineStr"/>
+      <c r="Q74" s="3" t="inlineStr"/>
+      <c r="R74" s="3" t="inlineStr"/>
+      <c r="S74" s="3" t="inlineStr"/>
+      <c r="T74" s="3" t="inlineStr"/>
+      <c r="U74" s="3" t="inlineStr"/>
+      <c r="V74" s="3" t="inlineStr"/>
+      <c r="W74" s="3" t="inlineStr"/>
+      <c r="X74" s="3" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="n"/>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
+      <c r="M75" s="3" t="inlineStr"/>
+      <c r="N75" s="3" t="inlineStr"/>
+      <c r="O75" s="3" t="inlineStr"/>
+      <c r="P75" s="3" t="inlineStr"/>
+      <c r="Q75" s="3" t="inlineStr"/>
+      <c r="R75" s="3" t="inlineStr"/>
+      <c r="S75" s="3" t="inlineStr"/>
+      <c r="T75" s="3" t="inlineStr"/>
+      <c r="U75" s="3" t="inlineStr"/>
+      <c r="V75" s="3" t="inlineStr"/>
+      <c r="W75" s="3" t="inlineStr"/>
+      <c r="X75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>周日008</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>索尔纳</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>佐加顿斯</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr"/>
+      <c r="N76" s="3" t="inlineStr"/>
+      <c r="O76" s="3" t="inlineStr"/>
+      <c r="P76" s="3" t="inlineStr"/>
+      <c r="Q76" s="3" t="inlineStr"/>
+      <c r="R76" s="3" t="inlineStr"/>
+      <c r="S76" s="3" t="inlineStr"/>
+      <c r="T76" s="3" t="inlineStr"/>
+      <c r="U76" s="3" t="inlineStr"/>
+      <c r="V76" s="3" t="inlineStr"/>
+      <c r="W76" s="3" t="inlineStr"/>
+      <c r="X76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="3" t="n"/>
+      <c r="F77" s="3" t="n"/>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+      <c r="I77" s="3" t="n"/>
+      <c r="J77" s="3" t="n"/>
+      <c r="K77" s="3" t="n"/>
+      <c r="L77" s="3" t="n"/>
+      <c r="M77" s="3" t="inlineStr"/>
+      <c r="N77" s="3" t="inlineStr"/>
+      <c r="O77" s="3" t="inlineStr"/>
+      <c r="P77" s="3" t="inlineStr"/>
+      <c r="Q77" s="3" t="inlineStr"/>
+      <c r="R77" s="3" t="inlineStr"/>
+      <c r="S77" s="3" t="inlineStr"/>
+      <c r="T77" s="3" t="inlineStr"/>
+      <c r="U77" s="3" t="inlineStr"/>
+      <c r="V77" s="3" t="inlineStr"/>
+      <c r="W77" s="3" t="inlineStr"/>
+      <c r="X77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>周日009</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>埃弗顿</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>诺丁汉</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr"/>
+      <c r="N78" s="3" t="inlineStr"/>
+      <c r="O78" s="3" t="inlineStr"/>
+      <c r="P78" s="3" t="inlineStr"/>
+      <c r="Q78" s="3" t="inlineStr"/>
+      <c r="R78" s="3" t="inlineStr"/>
+      <c r="S78" s="3" t="inlineStr"/>
+      <c r="T78" s="3" t="inlineStr"/>
+      <c r="U78" s="3" t="inlineStr"/>
+      <c r="V78" s="3" t="inlineStr"/>
+      <c r="W78" s="3" t="inlineStr"/>
+      <c r="X78" s="3" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="3" t="n"/>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
+      <c r="M79" s="3" t="inlineStr"/>
+      <c r="N79" s="3" t="inlineStr"/>
+      <c r="O79" s="3" t="inlineStr"/>
+      <c r="P79" s="3" t="inlineStr"/>
+      <c r="Q79" s="3" t="inlineStr"/>
+      <c r="R79" s="3" t="inlineStr"/>
+      <c r="S79" s="3" t="inlineStr"/>
+      <c r="T79" s="3" t="inlineStr"/>
+      <c r="U79" s="3" t="inlineStr"/>
+      <c r="V79" s="3" t="inlineStr"/>
+      <c r="W79" s="3" t="inlineStr"/>
+      <c r="X79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>周日010</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>汉坎</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>斯特罗姆</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr"/>
+      <c r="N80" s="3" t="inlineStr"/>
+      <c r="O80" s="3" t="inlineStr"/>
+      <c r="P80" s="3" t="inlineStr"/>
+      <c r="Q80" s="3" t="inlineStr"/>
+      <c r="R80" s="3" t="inlineStr"/>
+      <c r="S80" s="3" t="inlineStr"/>
+      <c r="T80" s="3" t="inlineStr"/>
+      <c r="U80" s="3" t="inlineStr"/>
+      <c r="V80" s="3" t="inlineStr"/>
+      <c r="W80" s="3" t="inlineStr"/>
+      <c r="X80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="3" t="n"/>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
+      <c r="M81" s="3" t="inlineStr"/>
+      <c r="N81" s="3" t="inlineStr"/>
+      <c r="O81" s="3" t="inlineStr"/>
+      <c r="P81" s="3" t="inlineStr"/>
+      <c r="Q81" s="3" t="inlineStr"/>
+      <c r="R81" s="3" t="inlineStr"/>
+      <c r="S81" s="3" t="inlineStr"/>
+      <c r="T81" s="3" t="inlineStr"/>
+      <c r="U81" s="3" t="inlineStr"/>
+      <c r="V81" s="3" t="inlineStr"/>
+      <c r="W81" s="3" t="inlineStr"/>
+      <c r="X81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>周日011</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>都灵</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>弗洛西诺</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="L82" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="M82" s="3" t="inlineStr"/>
+      <c r="N82" s="3" t="inlineStr"/>
+      <c r="O82" s="3" t="inlineStr"/>
+      <c r="P82" s="3" t="inlineStr"/>
+      <c r="Q82" s="3" t="inlineStr"/>
+      <c r="R82" s="3" t="inlineStr"/>
+      <c r="S82" s="3" t="inlineStr"/>
+      <c r="T82" s="3" t="inlineStr"/>
+      <c r="U82" s="3" t="inlineStr"/>
+      <c r="V82" s="3" t="inlineStr"/>
+      <c r="W82" s="3" t="inlineStr"/>
+      <c r="X82" s="3" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="3" t="n"/>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
+      <c r="M83" s="3" t="inlineStr"/>
+      <c r="N83" s="3" t="inlineStr"/>
+      <c r="O83" s="3" t="inlineStr"/>
+      <c r="P83" s="3" t="inlineStr"/>
+      <c r="Q83" s="3" t="inlineStr"/>
+      <c r="R83" s="3" t="inlineStr"/>
+      <c r="S83" s="3" t="inlineStr"/>
+      <c r="T83" s="3" t="inlineStr"/>
+      <c r="U83" s="3" t="inlineStr"/>
+      <c r="V83" s="3" t="inlineStr"/>
+      <c r="W83" s="3" t="inlineStr"/>
+      <c r="X83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>周日012</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>兰斯</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>蒙彼利埃</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr"/>
+      <c r="N84" s="3" t="inlineStr"/>
+      <c r="O84" s="3" t="inlineStr"/>
+      <c r="P84" s="3" t="inlineStr"/>
+      <c r="Q84" s="3" t="inlineStr"/>
+      <c r="R84" s="3" t="inlineStr"/>
+      <c r="S84" s="3" t="inlineStr"/>
+      <c r="T84" s="3" t="inlineStr"/>
+      <c r="U84" s="3" t="inlineStr"/>
+      <c r="V84" s="3" t="inlineStr"/>
+      <c r="W84" s="3" t="inlineStr"/>
+      <c r="X84" s="3" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+      <c r="I85" s="3" t="n"/>
+      <c r="J85" s="3" t="n"/>
+      <c r="K85" s="3" t="n"/>
+      <c r="L85" s="3" t="n"/>
+      <c r="M85" s="3" t="inlineStr"/>
+      <c r="N85" s="3" t="inlineStr"/>
+      <c r="O85" s="3" t="inlineStr"/>
+      <c r="P85" s="3" t="inlineStr"/>
+      <c r="Q85" s="3" t="inlineStr"/>
+      <c r="R85" s="3" t="inlineStr"/>
+      <c r="S85" s="3" t="inlineStr"/>
+      <c r="T85" s="3" t="inlineStr"/>
+      <c r="U85" s="3" t="inlineStr"/>
+      <c r="V85" s="3" t="inlineStr"/>
+      <c r="W85" s="3" t="inlineStr"/>
+      <c r="X85" s="3" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>周日013</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>不来梅</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>斯图加特</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H86" s="4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I86" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L86" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr"/>
+      <c r="N86" s="3" t="inlineStr"/>
+      <c r="O86" s="3" t="inlineStr"/>
+      <c r="P86" s="3" t="inlineStr"/>
+      <c r="Q86" s="3" t="inlineStr"/>
+      <c r="R86" s="3" t="inlineStr"/>
+      <c r="S86" s="3" t="inlineStr"/>
+      <c r="T86" s="3" t="inlineStr"/>
+      <c r="U86" s="3" t="inlineStr"/>
+      <c r="V86" s="3" t="inlineStr"/>
+      <c r="W86" s="3" t="inlineStr"/>
+      <c r="X86" s="3" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="3" t="n"/>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="M87" s="3" t="inlineStr"/>
+      <c r="N87" s="3" t="inlineStr"/>
+      <c r="O87" s="3" t="inlineStr"/>
+      <c r="P87" s="3" t="inlineStr"/>
+      <c r="Q87" s="3" t="inlineStr"/>
+      <c r="R87" s="3" t="inlineStr"/>
+      <c r="S87" s="3" t="inlineStr"/>
+      <c r="T87" s="3" t="inlineStr"/>
+      <c r="U87" s="3" t="inlineStr"/>
+      <c r="V87" s="3" t="inlineStr"/>
+      <c r="W87" s="3" t="inlineStr"/>
+      <c r="X87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>周日014</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>水晶宫</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>5:2</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>西汉姆联</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K88" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L88" s="4" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr"/>
+      <c r="N88" s="3" t="inlineStr"/>
+      <c r="O88" s="3" t="inlineStr"/>
+      <c r="P88" s="3" t="inlineStr"/>
+      <c r="Q88" s="3" t="inlineStr"/>
+      <c r="R88" s="3" t="inlineStr"/>
+      <c r="S88" s="3" t="inlineStr"/>
+      <c r="T88" s="3" t="inlineStr"/>
+      <c r="U88" s="3" t="inlineStr"/>
+      <c r="V88" s="3" t="inlineStr"/>
+      <c r="W88" s="3" t="inlineStr"/>
+      <c r="X88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+      <c r="E89" s="3" t="n"/>
+      <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
+      <c r="H89" s="3" t="n"/>
+      <c r="I89" s="3" t="n"/>
+      <c r="J89" s="3" t="n"/>
+      <c r="K89" s="3" t="n"/>
+      <c r="L89" s="3" t="n"/>
+      <c r="M89" s="3" t="inlineStr"/>
+      <c r="N89" s="3" t="inlineStr"/>
+      <c r="O89" s="3" t="inlineStr"/>
+      <c r="P89" s="3" t="inlineStr"/>
+      <c r="Q89" s="3" t="inlineStr"/>
+      <c r="R89" s="3" t="inlineStr"/>
+      <c r="S89" s="3" t="inlineStr"/>
+      <c r="T89" s="3" t="inlineStr"/>
+      <c r="U89" s="3" t="inlineStr"/>
+      <c r="V89" s="3" t="inlineStr"/>
+      <c r="W89" s="3" t="inlineStr"/>
+      <c r="X89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>周日015</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>维拉</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>伯恩茅斯</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I90" s="4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="K90" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr"/>
+      <c r="N90" s="3" t="inlineStr"/>
+      <c r="O90" s="3" t="inlineStr"/>
+      <c r="P90" s="3" t="inlineStr"/>
+      <c r="Q90" s="3" t="inlineStr"/>
+      <c r="R90" s="3" t="inlineStr"/>
+      <c r="S90" s="3" t="inlineStr"/>
+      <c r="T90" s="3" t="inlineStr"/>
+      <c r="U90" s="3" t="inlineStr"/>
+      <c r="V90" s="3" t="inlineStr"/>
+      <c r="W90" s="3" t="inlineStr"/>
+      <c r="X90" s="3" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="3" t="n"/>
+      <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
+      <c r="H91" s="3" t="n"/>
+      <c r="I91" s="3" t="n"/>
+      <c r="J91" s="3" t="n"/>
+      <c r="K91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
+      <c r="M91" s="3" t="inlineStr"/>
+      <c r="N91" s="3" t="inlineStr"/>
+      <c r="O91" s="3" t="inlineStr"/>
+      <c r="P91" s="3" t="inlineStr"/>
+      <c r="Q91" s="3" t="inlineStr"/>
+      <c r="R91" s="3" t="inlineStr"/>
+      <c r="S91" s="3" t="inlineStr"/>
+      <c r="T91" s="3" t="inlineStr"/>
+      <c r="U91" s="3" t="inlineStr"/>
+      <c r="V91" s="3" t="inlineStr"/>
+      <c r="W91" s="3" t="inlineStr"/>
+      <c r="X91" s="3" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>周日016</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>阿梅里亚</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>比利亚雷</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="H92" s="4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I92" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L92" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M92" s="3" t="inlineStr"/>
+      <c r="N92" s="3" t="inlineStr"/>
+      <c r="O92" s="3" t="inlineStr"/>
+      <c r="P92" s="3" t="inlineStr"/>
+      <c r="Q92" s="3" t="inlineStr"/>
+      <c r="R92" s="3" t="inlineStr"/>
+      <c r="S92" s="3" t="inlineStr"/>
+      <c r="T92" s="3" t="inlineStr"/>
+      <c r="U92" s="3" t="inlineStr"/>
+      <c r="V92" s="3" t="inlineStr"/>
+      <c r="W92" s="3" t="inlineStr"/>
+      <c r="X92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+      <c r="I93" s="3" t="n"/>
+      <c r="J93" s="3" t="n"/>
+      <c r="K93" s="3" t="n"/>
+      <c r="L93" s="3" t="n"/>
+      <c r="M93" s="3" t="inlineStr"/>
+      <c r="N93" s="3" t="inlineStr"/>
+      <c r="O93" s="3" t="inlineStr"/>
+      <c r="P93" s="3" t="inlineStr"/>
+      <c r="Q93" s="3" t="inlineStr"/>
+      <c r="R93" s="3" t="inlineStr"/>
+      <c r="S93" s="3" t="inlineStr"/>
+      <c r="T93" s="3" t="inlineStr"/>
+      <c r="U93" s="3" t="inlineStr"/>
+      <c r="V93" s="3" t="inlineStr"/>
+      <c r="W93" s="3" t="inlineStr"/>
+      <c r="X93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>周日017</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>考文垂</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>3:3</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>曼联</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I94" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K94" s="4" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M94" s="3" t="inlineStr"/>
+      <c r="N94" s="3" t="inlineStr"/>
+      <c r="O94" s="3" t="inlineStr"/>
+      <c r="P94" s="3" t="inlineStr"/>
+      <c r="Q94" s="3" t="inlineStr"/>
+      <c r="R94" s="3" t="inlineStr"/>
+      <c r="S94" s="3" t="inlineStr"/>
+      <c r="T94" s="3" t="inlineStr"/>
+      <c r="U94" s="3" t="inlineStr"/>
+      <c r="V94" s="3" t="inlineStr"/>
+      <c r="W94" s="3" t="inlineStr"/>
+      <c r="X94" s="3" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+      <c r="E95" s="3" t="n"/>
+      <c r="F95" s="3" t="n"/>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+      <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
+      <c r="L95" s="3" t="n"/>
+      <c r="M95" s="3" t="inlineStr"/>
+      <c r="N95" s="3" t="inlineStr"/>
+      <c r="O95" s="3" t="inlineStr"/>
+      <c r="P95" s="3" t="inlineStr"/>
+      <c r="Q95" s="3" t="inlineStr"/>
+      <c r="R95" s="3" t="inlineStr"/>
+      <c r="S95" s="3" t="inlineStr"/>
+      <c r="T95" s="3" t="inlineStr"/>
+      <c r="U95" s="3" t="inlineStr"/>
+      <c r="V95" s="3" t="inlineStr"/>
+      <c r="W95" s="3" t="inlineStr"/>
+      <c r="X95" s="3" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>周日018</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>布雷斯特</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>摩纳哥</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K96" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr"/>
+      <c r="N96" s="3" t="inlineStr"/>
+      <c r="O96" s="3" t="inlineStr"/>
+      <c r="P96" s="3" t="inlineStr"/>
+      <c r="Q96" s="3" t="inlineStr"/>
+      <c r="R96" s="3" t="inlineStr"/>
+      <c r="S96" s="3" t="inlineStr"/>
+      <c r="T96" s="3" t="inlineStr"/>
+      <c r="U96" s="3" t="inlineStr"/>
+      <c r="V96" s="3" t="inlineStr"/>
+      <c r="W96" s="3" t="inlineStr"/>
+      <c r="X96" s="3" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+      <c r="I97" s="3" t="n"/>
+      <c r="J97" s="3" t="n"/>
+      <c r="K97" s="3" t="n"/>
+      <c r="L97" s="3" t="n"/>
+      <c r="M97" s="3" t="inlineStr"/>
+      <c r="N97" s="3" t="inlineStr"/>
+      <c r="O97" s="3" t="inlineStr"/>
+      <c r="P97" s="3" t="inlineStr"/>
+      <c r="Q97" s="3" t="inlineStr"/>
+      <c r="R97" s="3" t="inlineStr"/>
+      <c r="S97" s="3" t="inlineStr"/>
+      <c r="T97" s="3" t="inlineStr"/>
+      <c r="U97" s="3" t="inlineStr"/>
+      <c r="V97" s="3" t="inlineStr"/>
+      <c r="W97" s="3" t="inlineStr"/>
+      <c r="X97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>周日019</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>卡塔尔23</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>澳大利23</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L98" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="M98" s="3" t="inlineStr"/>
+      <c r="N98" s="3" t="inlineStr"/>
+      <c r="O98" s="3" t="inlineStr"/>
+      <c r="P98" s="3" t="inlineStr"/>
+      <c r="Q98" s="3" t="inlineStr"/>
+      <c r="R98" s="3" t="inlineStr"/>
+      <c r="S98" s="3" t="inlineStr"/>
+      <c r="T98" s="3" t="inlineStr"/>
+      <c r="U98" s="3" t="inlineStr"/>
+      <c r="V98" s="3" t="inlineStr"/>
+      <c r="W98" s="3" t="inlineStr"/>
+      <c r="X98" s="3" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+      <c r="I99" s="3" t="n"/>
+      <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
+      <c r="L99" s="3" t="n"/>
+      <c r="M99" s="3" t="inlineStr"/>
+      <c r="N99" s="3" t="inlineStr"/>
+      <c r="O99" s="3" t="inlineStr"/>
+      <c r="P99" s="3" t="inlineStr"/>
+      <c r="Q99" s="3" t="inlineStr"/>
+      <c r="R99" s="3" t="inlineStr"/>
+      <c r="S99" s="3" t="inlineStr"/>
+      <c r="T99" s="3" t="inlineStr"/>
+      <c r="U99" s="3" t="inlineStr"/>
+      <c r="V99" s="3" t="inlineStr"/>
+      <c r="W99" s="3" t="inlineStr"/>
+      <c r="X99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>周日020</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>富勒姆</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>1:3</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>利物浦</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G100" s="3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="H100" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="K100" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L100" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="M100" s="3" t="inlineStr"/>
+      <c r="N100" s="3" t="inlineStr"/>
+      <c r="O100" s="3" t="inlineStr"/>
+      <c r="P100" s="3" t="inlineStr"/>
+      <c r="Q100" s="3" t="inlineStr"/>
+      <c r="R100" s="3" t="inlineStr"/>
+      <c r="S100" s="3" t="inlineStr"/>
+      <c r="T100" s="3" t="inlineStr"/>
+      <c r="U100" s="3" t="inlineStr"/>
+      <c r="V100" s="3" t="inlineStr"/>
+      <c r="W100" s="3" t="inlineStr"/>
+      <c r="X100" s="3" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="3" t="n"/>
+      <c r="F101" s="3" t="n"/>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+      <c r="I101" s="3" t="n"/>
+      <c r="J101" s="3" t="n"/>
+      <c r="K101" s="3" t="n"/>
+      <c r="L101" s="3" t="n"/>
+      <c r="M101" s="3" t="inlineStr"/>
+      <c r="N101" s="3" t="inlineStr"/>
+      <c r="O101" s="3" t="inlineStr"/>
+      <c r="P101" s="3" t="inlineStr"/>
+      <c r="Q101" s="3" t="inlineStr"/>
+      <c r="R101" s="3" t="inlineStr"/>
+      <c r="S101" s="3" t="inlineStr"/>
+      <c r="T101" s="3" t="inlineStr"/>
+      <c r="U101" s="3" t="inlineStr"/>
+      <c r="V101" s="3" t="inlineStr"/>
+      <c r="W101" s="3" t="inlineStr"/>
+      <c r="X101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>周日021</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>多特蒙德</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>勒沃库森</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I102" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="K102" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L102" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="M102" s="3" t="inlineStr"/>
+      <c r="N102" s="3" t="inlineStr"/>
+      <c r="O102" s="3" t="inlineStr"/>
+      <c r="P102" s="3" t="inlineStr"/>
+      <c r="Q102" s="3" t="inlineStr"/>
+      <c r="R102" s="3" t="inlineStr"/>
+      <c r="S102" s="3" t="inlineStr"/>
+      <c r="T102" s="3" t="inlineStr"/>
+      <c r="U102" s="3" t="inlineStr"/>
+      <c r="V102" s="3" t="inlineStr"/>
+      <c r="W102" s="3" t="inlineStr"/>
+      <c r="X102" s="3" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+      <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="K103" s="3" t="n"/>
+      <c r="L103" s="3" t="n"/>
+      <c r="M103" s="3" t="inlineStr"/>
+      <c r="N103" s="3" t="inlineStr"/>
+      <c r="O103" s="3" t="inlineStr"/>
+      <c r="P103" s="3" t="inlineStr"/>
+      <c r="Q103" s="3" t="inlineStr"/>
+      <c r="R103" s="3" t="inlineStr"/>
+      <c r="S103" s="3" t="inlineStr"/>
+      <c r="T103" s="3" t="inlineStr"/>
+      <c r="U103" s="3" t="inlineStr"/>
+      <c r="V103" s="3" t="inlineStr"/>
+      <c r="W103" s="3" t="inlineStr"/>
+      <c r="X103" s="3" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>周日022</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>费耶诺德</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>奈梅亨</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I104" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J104" s="3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="K104" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="L104" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="M104" s="3" t="inlineStr"/>
+      <c r="N104" s="3" t="inlineStr"/>
+      <c r="O104" s="3" t="inlineStr"/>
+      <c r="P104" s="3" t="inlineStr"/>
+      <c r="Q104" s="3" t="inlineStr"/>
+      <c r="R104" s="3" t="inlineStr"/>
+      <c r="S104" s="3" t="inlineStr"/>
+      <c r="T104" s="3" t="inlineStr"/>
+      <c r="U104" s="3" t="inlineStr"/>
+      <c r="V104" s="3" t="inlineStr"/>
+      <c r="W104" s="3" t="inlineStr"/>
+      <c r="X104" s="3" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+      <c r="I105" s="3" t="n"/>
+      <c r="J105" s="3" t="n"/>
+      <c r="K105" s="3" t="n"/>
+      <c r="L105" s="3" t="n"/>
+      <c r="M105" s="3" t="inlineStr"/>
+      <c r="N105" s="3" t="inlineStr"/>
+      <c r="O105" s="3" t="inlineStr"/>
+      <c r="P105" s="3" t="inlineStr"/>
+      <c r="Q105" s="3" t="inlineStr"/>
+      <c r="R105" s="3" t="inlineStr"/>
+      <c r="S105" s="3" t="inlineStr"/>
+      <c r="T105" s="3" t="inlineStr"/>
+      <c r="U105" s="3" t="inlineStr"/>
+      <c r="V105" s="3" t="inlineStr"/>
+      <c r="W105" s="3" t="inlineStr"/>
+      <c r="X105" s="3" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>周日023</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>阿拉维斯</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>马竞</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G106" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I106" s="3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="J106" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="K106" s="3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="L106" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="M106" s="3" t="inlineStr"/>
+      <c r="N106" s="3" t="inlineStr"/>
+      <c r="O106" s="3" t="inlineStr"/>
+      <c r="P106" s="3" t="inlineStr"/>
+      <c r="Q106" s="3" t="inlineStr"/>
+      <c r="R106" s="3" t="inlineStr"/>
+      <c r="S106" s="3" t="inlineStr"/>
+      <c r="T106" s="3" t="inlineStr"/>
+      <c r="U106" s="3" t="inlineStr"/>
+      <c r="V106" s="3" t="inlineStr"/>
+      <c r="W106" s="3" t="inlineStr"/>
+      <c r="X106" s="3" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+      <c r="E107" s="3" t="n"/>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+      <c r="I107" s="3" t="n"/>
+      <c r="J107" s="3" t="n"/>
+      <c r="K107" s="3" t="n"/>
+      <c r="L107" s="3" t="n"/>
+      <c r="M107" s="3" t="inlineStr"/>
+      <c r="N107" s="3" t="inlineStr"/>
+      <c r="O107" s="3" t="inlineStr"/>
+      <c r="P107" s="3" t="inlineStr"/>
+      <c r="Q107" s="3" t="inlineStr"/>
+      <c r="R107" s="3" t="inlineStr"/>
+      <c r="S107" s="3" t="inlineStr"/>
+      <c r="T107" s="3" t="inlineStr"/>
+      <c r="U107" s="3" t="inlineStr"/>
+      <c r="V107" s="3" t="inlineStr"/>
+      <c r="W107" s="3" t="inlineStr"/>
+      <c r="X107" s="3" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>周日024</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>蒙扎</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>亚特兰大</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G108" s="3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I108" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K108" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L108" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="M108" s="3" t="inlineStr"/>
+      <c r="N108" s="3" t="inlineStr"/>
+      <c r="O108" s="3" t="inlineStr"/>
+      <c r="P108" s="3" t="inlineStr"/>
+      <c r="Q108" s="3" t="inlineStr"/>
+      <c r="R108" s="3" t="inlineStr"/>
+      <c r="S108" s="3" t="inlineStr"/>
+      <c r="T108" s="3" t="inlineStr"/>
+      <c r="U108" s="3" t="inlineStr"/>
+      <c r="V108" s="3" t="inlineStr"/>
+      <c r="W108" s="3" t="inlineStr"/>
+      <c r="X108" s="3" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="n"/>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+      <c r="I109" s="3" t="n"/>
+      <c r="J109" s="3" t="n"/>
+      <c r="K109" s="3" t="n"/>
+      <c r="L109" s="3" t="n"/>
+      <c r="M109" s="3" t="inlineStr"/>
+      <c r="N109" s="3" t="inlineStr"/>
+      <c r="O109" s="3" t="inlineStr"/>
+      <c r="P109" s="3" t="inlineStr"/>
+      <c r="Q109" s="3" t="inlineStr"/>
+      <c r="R109" s="3" t="inlineStr"/>
+      <c r="S109" s="3" t="inlineStr"/>
+      <c r="T109" s="3" t="inlineStr"/>
+      <c r="U109" s="3" t="inlineStr"/>
+      <c r="V109" s="3" t="inlineStr"/>
+      <c r="W109" s="3" t="inlineStr"/>
+      <c r="X109" s="3" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>周日025</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>皇马</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>3:2</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>巴萨</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G110" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="H110" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I110" s="3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="K110" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L110" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M110" s="3" t="inlineStr"/>
+      <c r="N110" s="3" t="inlineStr"/>
+      <c r="O110" s="3" t="inlineStr"/>
+      <c r="P110" s="3" t="inlineStr"/>
+      <c r="Q110" s="3" t="inlineStr"/>
+      <c r="R110" s="3" t="inlineStr"/>
+      <c r="S110" s="3" t="inlineStr"/>
+      <c r="T110" s="3" t="inlineStr"/>
+      <c r="U110" s="3" t="inlineStr"/>
+      <c r="V110" s="3" t="inlineStr"/>
+      <c r="W110" s="3" t="inlineStr"/>
+      <c r="X110" s="3" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="n"/>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+      <c r="I111" s="3" t="n"/>
+      <c r="J111" s="3" t="n"/>
+      <c r="K111" s="3" t="n"/>
+      <c r="L111" s="3" t="n"/>
+      <c r="M111" s="3" t="inlineStr"/>
+      <c r="N111" s="3" t="inlineStr"/>
+      <c r="O111" s="3" t="inlineStr"/>
+      <c r="P111" s="3" t="inlineStr"/>
+      <c r="Q111" s="3" t="inlineStr"/>
+      <c r="R111" s="3" t="inlineStr"/>
+      <c r="S111" s="3" t="inlineStr"/>
+      <c r="T111" s="3" t="inlineStr"/>
+      <c r="U111" s="3" t="inlineStr"/>
+      <c r="V111" s="3" t="inlineStr"/>
+      <c r="W111" s="3" t="inlineStr"/>
+      <c r="X111" s="3" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>周日026</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>巴黎圣曼</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>4:1</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>里昂</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I112" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K112" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L112" s="3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="M112" s="3" t="inlineStr"/>
+      <c r="N112" s="3" t="inlineStr"/>
+      <c r="O112" s="3" t="inlineStr"/>
+      <c r="P112" s="3" t="inlineStr"/>
+      <c r="Q112" s="3" t="inlineStr"/>
+      <c r="R112" s="3" t="inlineStr"/>
+      <c r="S112" s="3" t="inlineStr"/>
+      <c r="T112" s="3" t="inlineStr"/>
+      <c r="U112" s="3" t="inlineStr"/>
+      <c r="V112" s="3" t="inlineStr"/>
+      <c r="W112" s="3" t="inlineStr"/>
+      <c r="X112" s="3" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="n"/>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+      <c r="E113" s="3" t="n"/>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+      <c r="I113" s="3" t="n"/>
+      <c r="J113" s="3" t="n"/>
+      <c r="K113" s="3" t="n"/>
+      <c r="L113" s="3" t="n"/>
+      <c r="M113" s="3" t="inlineStr"/>
+      <c r="N113" s="3" t="inlineStr"/>
+      <c r="O113" s="3" t="inlineStr"/>
+      <c r="P113" s="3" t="inlineStr"/>
+      <c r="Q113" s="3" t="inlineStr"/>
+      <c r="R113" s="3" t="inlineStr"/>
+      <c r="S113" s="3" t="inlineStr"/>
+      <c r="T113" s="3" t="inlineStr"/>
+      <c r="U113" s="3" t="inlineStr"/>
+      <c r="V113" s="3" t="inlineStr"/>
+      <c r="W113" s="3" t="inlineStr"/>
+      <c r="X113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>周日027</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>里斯本</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>吉马良斯</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G114" s="3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="H114" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I114" s="3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="J114" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="K114" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L114" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M114" s="3" t="inlineStr"/>
+      <c r="N114" s="3" t="inlineStr"/>
+      <c r="O114" s="3" t="inlineStr"/>
+      <c r="P114" s="3" t="inlineStr"/>
+      <c r="Q114" s="3" t="inlineStr"/>
+      <c r="R114" s="3" t="inlineStr"/>
+      <c r="S114" s="3" t="inlineStr"/>
+      <c r="T114" s="3" t="inlineStr"/>
+      <c r="U114" s="3" t="inlineStr"/>
+      <c r="V114" s="3" t="inlineStr"/>
+      <c r="W114" s="3" t="inlineStr"/>
+      <c r="X114" s="3" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="n"/>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+      <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="n"/>
+      <c r="K115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
+      <c r="M115" s="3" t="inlineStr"/>
+      <c r="N115" s="3" t="inlineStr"/>
+      <c r="O115" s="3" t="inlineStr"/>
+      <c r="P115" s="3" t="inlineStr"/>
+      <c r="Q115" s="3" t="inlineStr"/>
+      <c r="R115" s="3" t="inlineStr"/>
+      <c r="S115" s="3" t="inlineStr"/>
+      <c r="T115" s="3" t="inlineStr"/>
+      <c r="U115" s="3" t="inlineStr"/>
+      <c r="V115" s="3" t="inlineStr"/>
+      <c r="W115" s="3" t="inlineStr"/>
+      <c r="X115" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="684">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2162,6 +6262,47 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2178,6 +6319,47 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -2194,6 +6376,47 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2210,6 +6433,47 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D115"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2226,6 +6490,47 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E115"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -2242,6 +6547,47 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -2258,6 +6604,47 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G114:G115"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -2274,6 +6661,47 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H114:H115"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -2290,6 +6718,47 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I114:I115"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -2306,6 +6775,47 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -2322,6 +6832,47 @@
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K115"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -2338,6 +6889,47 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,62 +547,62 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周一001</t>
+          <t>周二001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>日本23</t>
+          <t>利雅得新月</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>韩国23</t>
+          <t>艾因</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>4.15</t>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>3.85</t>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,62 +647,62 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周一002</t>
+          <t>周二002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>阿联酋23</t>
+          <t>罗德兹</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>中国23</t>
+          <t>巴黎FC</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>3.40</t>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>4.50</t>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,37 +747,37 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周一003</t>
+          <t>周二003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>罗马</t>
+          <t>阿森纳</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>博洛尼亚</t>
+          <t>切尔西</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -785,24 +785,24 @@
           <t>3.80</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>17.00</t>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>7.25</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,62 +847,62 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周一004</t>
+          <t>周二004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>AC米兰</t>
+          <t>莱切斯特</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>国际米兰</t>
+          <t>南安普敦</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>3.55</t>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>9.55</t>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>6.60</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,12 +947,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周一005</t>
+          <t>周二005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>塞维利亚</t>
+          <t>拉齐奥</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -962,42 +962,42 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>马洛卡</t>
+          <t>尤文图斯</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周二001</t>
+          <t>周三001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>利雅得新月</t>
+          <t>横滨水手</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>3:2</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>艾因</t>
+          <t>蔚山现代</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>4.45</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>5.50</t>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>7.75</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,62 +1147,62 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周二002</t>
+          <t>周三002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>罗德兹</t>
+          <t>秋田闪电</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>巴黎FC</t>
+          <t>湘南海洋</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>3.20</t>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,62 +1247,62 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周二003</t>
+          <t>周三003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>阿森纳</t>
+          <t>群马温泉</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>切尔西</t>
+          <t>柏太阳神</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>7.25</t>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,62 +1347,62 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周二004</t>
+          <t>周三004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>莱切斯特</t>
+          <t>熊本深红</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>南安普敦</t>
+          <t>鸟栖沙岩</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>8.25</t>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>6.60</t>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周二005</t>
+          <t>周三005</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>拉齐奥</t>
+          <t>洛里昂</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>尤文图斯</t>
+          <t>巴黎圣曼</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3.85</t>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>17.00</t>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1544,8 +1544,608 @@
       <c r="W21" s="3" t="inlineStr"/>
       <c r="X21" s="3" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>周三006</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>狼队</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>伯恩茅斯</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr"/>
+      <c r="O22" s="3" t="inlineStr"/>
+      <c r="P22" s="3" t="inlineStr"/>
+      <c r="Q22" s="3" t="inlineStr"/>
+      <c r="R22" s="3" t="inlineStr"/>
+      <c r="S22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr"/>
+      <c r="U22" s="3" t="inlineStr"/>
+      <c r="V22" s="3" t="inlineStr"/>
+      <c r="W22" s="3" t="inlineStr"/>
+      <c r="X22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr"/>
+      <c r="O23" s="3" t="inlineStr"/>
+      <c r="P23" s="3" t="inlineStr"/>
+      <c r="Q23" s="3" t="inlineStr"/>
+      <c r="R23" s="3" t="inlineStr"/>
+      <c r="S23" s="3" t="inlineStr"/>
+      <c r="T23" s="3" t="inlineStr"/>
+      <c r="U23" s="3" t="inlineStr"/>
+      <c r="V23" s="3" t="inlineStr"/>
+      <c r="W23" s="3" t="inlineStr"/>
+      <c r="X23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>周三007</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>水晶宫</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>纽卡斯尔</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr"/>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
+      <c r="X24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr"/>
+      <c r="P25" s="3" t="inlineStr"/>
+      <c r="Q25" s="3" t="inlineStr"/>
+      <c r="R25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr"/>
+      <c r="W25" s="3" t="inlineStr"/>
+      <c r="X25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>周三008</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>曼联</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>4:2</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>谢菲联</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
+      <c r="W26" s="3" t="inlineStr"/>
+      <c r="X26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr"/>
+      <c r="O27" s="3" t="inlineStr"/>
+      <c r="P27" s="3" t="inlineStr"/>
+      <c r="Q27" s="3" t="inlineStr"/>
+      <c r="R27" s="3" t="inlineStr"/>
+      <c r="S27" s="3" t="inlineStr"/>
+      <c r="T27" s="3" t="inlineStr"/>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr"/>
+      <c r="W27" s="3" t="inlineStr"/>
+      <c r="X27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>周三009</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>埃弗顿</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>利物浦</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="inlineStr"/>
+      <c r="O28" s="3" t="inlineStr"/>
+      <c r="P28" s="3" t="inlineStr"/>
+      <c r="Q28" s="3" t="inlineStr"/>
+      <c r="R28" s="3" t="inlineStr"/>
+      <c r="S28" s="3" t="inlineStr"/>
+      <c r="T28" s="3" t="inlineStr"/>
+      <c r="U28" s="3" t="inlineStr"/>
+      <c r="V28" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="inlineStr"/>
+      <c r="X28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr"/>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr"/>
+      <c r="U29" s="3" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr"/>
+      <c r="X29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>周三010</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>亚特兰大</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>4:1</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>佛罗伦萨</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr"/>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr"/>
+      <c r="V30" s="3" t="inlineStr"/>
+      <c r="W30" s="3" t="inlineStr"/>
+      <c r="X30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="n"/>
+      <c r="L31" s="3" t="n"/>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr"/>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="3" t="inlineStr"/>
+      <c r="U31" s="3" t="inlineStr"/>
+      <c r="V31" s="3" t="inlineStr"/>
+      <c r="W31" s="3" t="inlineStr"/>
+      <c r="X31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>周三011</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>博塔弗戈</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>大学体育</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr"/>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr"/>
+      <c r="X32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="3" t="n"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr"/>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
+      <c r="X33" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="192">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1556,6 +2156,12 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1566,6 +2172,12 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -1576,6 +2188,12 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -1586,6 +2204,12 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1596,6 +2220,12 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -1606,6 +2236,12 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -1616,6 +2252,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -1626,6 +2268,12 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -1636,6 +2284,12 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -1646,6 +2300,12 @@
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -1656,6 +2316,12 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -1666,6 +2332,12 @@
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -547,62 +547,62 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周二001</t>
+          <t>周三001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>利雅得新月</t>
+          <t>横滨水手</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>3:2</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>艾因</t>
+          <t>蔚山现代</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>4.45</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>5.50</t>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>7.75</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,62 +647,62 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周二002</t>
+          <t>周三002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>罗德兹</t>
+          <t>秋田闪电</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>巴黎FC</t>
+          <t>湘南海洋</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>3.20</t>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,62 +747,62 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周二003</t>
+          <t>周三003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>阿森纳</t>
+          <t>群马温泉</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>切尔西</t>
+          <t>柏太阳神</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>7.25</t>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,62 +847,62 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周二004</t>
+          <t>周三004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>莱切斯特</t>
+          <t>熊本深红</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>南安普敦</t>
+          <t>鸟栖沙岩</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>8.25</t>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>6.60</t>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,62 +947,62 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周二005</t>
+          <t>周三005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>拉齐奥</t>
+          <t>洛里昂</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>尤文图斯</t>
+          <t>巴黎圣曼</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>3.85</t>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>17.00</t>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周三001</t>
+          <t>周三006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>横滨水手</t>
+          <t>狼队</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>3:2</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>蔚山现代</t>
+          <t>伯恩茅斯</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>6.30</t>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>7.75</t>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,62 +1147,62 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周三002</t>
+          <t>周三007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>秋田闪电</t>
+          <t>水晶宫</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>湘南海洋</t>
+          <t>纽卡斯尔</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,62 +1247,62 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周三003</t>
+          <t>周三008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>群马温泉</t>
+          <t>曼联</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>4:2</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>柏太阳神</t>
+          <t>谢菲联</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
           <t>10.50</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>29.00</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,62 +1347,62 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周三004</t>
+          <t>周三009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>熊本深红</t>
+          <t>埃弗顿</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>鸟栖沙岩</t>
+          <t>利物浦</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
           <t>14.00</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>23.00</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,37 +1447,37 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周三005</t>
+          <t>周三010</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>洛里昂</t>
+          <t>亚特兰大</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:4</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>巴黎圣曼</t>
+          <t>佛罗伦萨</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1487,22 +1487,22 @@
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周三006</t>
+          <t>周三011</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>狼队</t>
+          <t>博塔弗戈</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>伯恩茅斯</t>
+          <t>大学体育</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>4.80</t>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>5.60</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周三007</t>
+          <t>周四001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>水晶宫</t>
+          <t>海伦芬</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:8</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>纽卡斯尔</t>
+          <t>埃因霍温</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>4.30</t>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>5.05</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="L24" s="3" t="inlineStr">
-        <is>
-          <t>16.00</t>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>10.50</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,12 +1747,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周三008</t>
+          <t>周四002</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>曼联</t>
+          <t>北雪平</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1762,47 +1762,47 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>谢菲联</t>
+          <t>埃夫斯堡</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,62 +1847,62 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周三009</t>
+          <t>周四003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>埃弗顿</t>
+          <t>布赖顿</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:4</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>利物浦</t>
+          <t>曼城</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>4.20</t>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,62 +1947,62 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周三010</t>
+          <t>周四004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>亚特兰大</t>
+          <t>卡塔尔23</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>佛罗伦萨</t>
+          <t>日本23</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>41.00</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2047,62 +2047,62 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>周三011</t>
+          <t>周四005</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>博塔弗戈</t>
+          <t>韩国23</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>大学体育</t>
+          <t>印度尼西亚U23</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr"/>

--- a/x_f/goats.xlsx
+++ b/x_f/goats.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,62 +547,62 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>周三001</t>
+          <t>周六001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>横滨水手</t>
+          <t>新泻天鹅</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>3:2</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>蔚山现代</t>
+          <t>东京FC</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>7.75</t>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr"/>
@@ -647,62 +647,62 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>周三002</t>
+          <t>周六002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>秋田闪电</t>
+          <t>神户胜利</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>湘南海洋</t>
+          <t>京都</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>3.30</t>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr"/>
@@ -747,47 +747,47 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>周三003</t>
+          <t>周六003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>群马温泉</t>
+          <t>仙台七夕</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>柏太阳神</t>
+          <t>千叶市原</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>6.25</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr"/>
@@ -847,47 +847,47 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>周三004</t>
+          <t>周六004</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>熊本深红</t>
+          <t>爱媛FC</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>鸟栖沙岩</t>
+          <t>甲府风林</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>5.50</t>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>3.65</t>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr"/>
@@ -947,62 +947,62 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>周三005</t>
+          <t>周六005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>洛里昂</t>
+          <t>大阪樱花</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:4</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>巴黎圣曼</t>
+          <t>横滨水手</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
@@ -1047,62 +1047,62 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>周三006</t>
+          <t>周六006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>狼队</t>
+          <t>惠灵顿</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>伯恩茅斯</t>
+          <t>麦克阿瑟FC</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>6.00</t>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>3.65</t>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1147,27 +1147,27 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>周三007</t>
+          <t>周六007</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>水晶宫</t>
+          <t>纽喷气机</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>纽卡斯尔</t>
+          <t>中央海岸</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1175,34 +1175,34 @@
           <t>7.00</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>4.30</t>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>4.70</t>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1247,62 +1247,62 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>周三008</t>
+          <t>周六008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>曼联</t>
+          <t>金泉尚武</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>谢菲联</t>
+          <t>江原FC</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>9.25</t>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
-        <is>
-          <t>10.00</t>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
@@ -1347,22 +1347,22 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>周三009</t>
+          <t>周六009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>埃弗顿</t>
+          <t>墨胜利</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>3:4</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>利物浦</t>
+          <t>西悉尼</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1372,19 +1372,19 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
           <t>4.50</t>
@@ -1392,17 +1392,17 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>14.00</t>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>9.50</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1447,62 +1447,62 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>周三010</t>
+          <t>周六010</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>亚特兰大</t>
+          <t>基尔</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>佛罗伦萨</t>
+          <t>凯泽</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>10.50</t>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1547,62 +1547,62 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>周三011</t>
+          <t>周六011</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>博塔弗戈</t>
+          <t>西汉姆联</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>大学体育</t>
+          <t>利物浦</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1647,62 +1647,62 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>周四001</t>
+          <t>周六012</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>海伦芬</t>
+          <t>拉帕马斯</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>0:8</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>埃因霍温</t>
+          <t>赫罗纳</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>5.05</t>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>10.50</t>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1747,62 +1747,62 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>周四002</t>
+          <t>周六013</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>北雪平</t>
+          <t>莱切</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>4:2</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>埃夫斯堡</t>
+          <t>蒙扎</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>3.80</t>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>16.00</t>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr"/>
@@ -1847,62 +1847,62 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>周四003</t>
+          <t>周六014</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>布赖顿</t>
+          <t>圣埃蒂安</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>0:4</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>曼城</t>
+          <t>卡昂</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>8.50</t>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>4.35</t>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>5.05</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1947,62 +1947,62 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>周四004</t>
+          <t>周六015</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>卡塔尔23</t>
+          <t>莱红牛</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>日本23</t>
+          <t>多特蒙德</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>12.00</t>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>5.70</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr"/>
@@ -2047,62 +2047,62 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>周四005</t>
+          <t>周六016</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>韩国23</t>
+          <t>奥格斯堡</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>印度尼西亚U23</t>
+          <t>不来梅</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>6.30</t>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
           <t>12.00</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="L32" s="3" t="inlineStr">
-        <is>
-          <t>36.00</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr"/>
@@ -2144,8 +2144,4908 @@
       <c r="W33" s="3" t="inlineStr"/>
       <c r="X33" s="3" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>周六017</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>拜仁</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>法兰克福</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
+      <c r="X35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>周六018</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>弗赖堡</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>沃夫斯堡</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
+      <c r="X36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr"/>
+      <c r="X37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>周六019</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>狼队</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>卢顿</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+      <c r="X38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+      <c r="X39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>周六020</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>曼联</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>伯恩利</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
+      <c r="X40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="3" t="n"/>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
+      <c r="W41" s="3" t="inlineStr"/>
+      <c r="X41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>周六021</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>纽卡斯尔</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>5:1</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>谢菲联</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+      <c r="W42" s="3" t="inlineStr"/>
+      <c r="X42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
+      <c r="W43" s="3" t="inlineStr"/>
+      <c r="X43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>周六022</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>富勒姆</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>水晶宫</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr"/>
+      <c r="X44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr"/>
+      <c r="X45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>周六023</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>加的夫城</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1:4</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>米堡</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
+      <c r="W46" s="3" t="inlineStr"/>
+      <c r="X46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr"/>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr"/>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr"/>
+      <c r="X47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>周六024</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>阿梅里亚</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>1:3</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>赫塔费</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr"/>
+      <c r="Q48" s="3" t="inlineStr"/>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr"/>
+      <c r="X48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr"/>
+      <c r="X49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>周六025</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>尤文图斯</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>AC米兰</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
+      <c r="W50" s="3" t="inlineStr"/>
+      <c r="X50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr"/>
+      <c r="Q51" s="3" t="inlineStr"/>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr"/>
+      <c r="T51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr"/>
+      <c r="W51" s="3" t="inlineStr"/>
+      <c r="X51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>周六026</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>罗森博格</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>1:3</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>博德闪耀</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr"/>
+      <c r="T52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr"/>
+      <c r="W52" s="3" t="inlineStr"/>
+      <c r="X52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr"/>
+      <c r="T53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr"/>
+      <c r="W53" s="3" t="inlineStr"/>
+      <c r="X53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>周六027</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>埃弗顿</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>布伦特</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr"/>
+      <c r="V54" s="3" t="inlineStr"/>
+      <c r="W54" s="3" t="inlineStr"/>
+      <c r="X54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="n"/>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
+      <c r="V55" s="3" t="inlineStr"/>
+      <c r="W55" s="3" t="inlineStr"/>
+      <c r="X55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>周六028</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>勒沃库森</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>斯图加特</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I56" s="4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr"/>
+      <c r="T56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr"/>
+      <c r="V56" s="3" t="inlineStr"/>
+      <c r="W56" s="3" t="inlineStr"/>
+      <c r="X56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="n"/>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr"/>
+      <c r="Q57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr"/>
+      <c r="T57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="inlineStr"/>
+      <c r="V57" s="3" t="inlineStr"/>
+      <c r="W57" s="3" t="inlineStr"/>
+      <c r="X57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>周六029</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>阿拉维斯</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>塞尔塔</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="inlineStr"/>
+      <c r="Q58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="inlineStr"/>
+      <c r="S58" s="3" t="inlineStr"/>
+      <c r="T58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="inlineStr"/>
+      <c r="V58" s="3" t="inlineStr"/>
+      <c r="W58" s="3" t="inlineStr"/>
+      <c r="X58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="3" t="n"/>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr"/>
+      <c r="T59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="inlineStr"/>
+      <c r="V59" s="3" t="inlineStr"/>
+      <c r="W59" s="3" t="inlineStr"/>
+      <c r="X59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>周六030</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>本菲卡</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>布拉加</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+      <c r="T60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="inlineStr"/>
+      <c r="V60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr"/>
+      <c r="X60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="n"/>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr"/>
+      <c r="Q61" s="3" t="inlineStr"/>
+      <c r="R61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr"/>
+      <c r="T61" s="3" t="inlineStr"/>
+      <c r="U61" s="3" t="inlineStr"/>
+      <c r="V61" s="3" t="inlineStr"/>
+      <c r="W61" s="3" t="inlineStr"/>
+      <c r="X61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>周六031</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>拉齐奥</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>维罗纳</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="inlineStr"/>
+      <c r="T62" s="3" t="inlineStr"/>
+      <c r="U62" s="3" t="inlineStr"/>
+      <c r="V62" s="3" t="inlineStr"/>
+      <c r="W62" s="3" t="inlineStr"/>
+      <c r="X62" s="3" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="3" t="n"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
+      <c r="Q63" s="3" t="inlineStr"/>
+      <c r="R63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="inlineStr"/>
+      <c r="T63" s="3" t="inlineStr"/>
+      <c r="U63" s="3" t="inlineStr"/>
+      <c r="V63" s="3" t="inlineStr"/>
+      <c r="W63" s="3" t="inlineStr"/>
+      <c r="X63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>周六032</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>维拉</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>切尔西</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr"/>
+      <c r="T64" s="3" t="inlineStr"/>
+      <c r="U64" s="3" t="inlineStr"/>
+      <c r="V64" s="3" t="inlineStr"/>
+      <c r="W64" s="3" t="inlineStr"/>
+      <c r="X64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="n"/>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr"/>
+      <c r="T65" s="3" t="inlineStr"/>
+      <c r="U65" s="3" t="inlineStr"/>
+      <c r="V65" s="3" t="inlineStr"/>
+      <c r="W65" s="3" t="inlineStr"/>
+      <c r="X65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>周六033</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>马竞</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>毕尔巴鄂</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="inlineStr"/>
+      <c r="R66" s="3" t="inlineStr"/>
+      <c r="S66" s="3" t="inlineStr"/>
+      <c r="T66" s="3" t="inlineStr"/>
+      <c r="U66" s="3" t="inlineStr"/>
+      <c r="V66" s="3" t="inlineStr"/>
+      <c r="W66" s="3" t="inlineStr"/>
+      <c r="X66" s="3" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="n"/>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr"/>
+      <c r="Q67" s="3" t="inlineStr"/>
+      <c r="R67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr"/>
+      <c r="T67" s="3" t="inlineStr"/>
+      <c r="U67" s="3" t="inlineStr"/>
+      <c r="V67" s="3" t="inlineStr"/>
+      <c r="W67" s="3" t="inlineStr"/>
+      <c r="X67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>周六034</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>巴黎圣曼</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>3:3</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>勒阿弗尔</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr"/>
+      <c r="P68" s="3" t="inlineStr"/>
+      <c r="Q68" s="3" t="inlineStr"/>
+      <c r="R68" s="3" t="inlineStr"/>
+      <c r="S68" s="3" t="inlineStr"/>
+      <c r="T68" s="3" t="inlineStr"/>
+      <c r="U68" s="3" t="inlineStr"/>
+      <c r="V68" s="3" t="inlineStr"/>
+      <c r="W68" s="3" t="inlineStr"/>
+      <c r="X68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="3" t="n"/>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
+      <c r="L69" s="3" t="n"/>
+      <c r="M69" s="3" t="inlineStr"/>
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr"/>
+      <c r="P69" s="3" t="inlineStr"/>
+      <c r="Q69" s="3" t="inlineStr"/>
+      <c r="R69" s="3" t="inlineStr"/>
+      <c r="S69" s="3" t="inlineStr"/>
+      <c r="T69" s="3" t="inlineStr"/>
+      <c r="U69" s="3" t="inlineStr"/>
+      <c r="V69" s="3" t="inlineStr"/>
+      <c r="W69" s="3" t="inlineStr"/>
+      <c r="X69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>周六035</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>纽约红牛</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>温哥华</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr"/>
+      <c r="N70" s="3" t="inlineStr"/>
+      <c r="O70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr"/>
+      <c r="Q70" s="3" t="inlineStr"/>
+      <c r="R70" s="3" t="inlineStr"/>
+      <c r="S70" s="3" t="inlineStr"/>
+      <c r="T70" s="3" t="inlineStr"/>
+      <c r="U70" s="3" t="inlineStr"/>
+      <c r="V70" s="3" t="inlineStr"/>
+      <c r="W70" s="3" t="inlineStr"/>
+      <c r="X70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="3" t="n"/>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="inlineStr"/>
+      <c r="N71" s="3" t="inlineStr"/>
+      <c r="O71" s="3" t="inlineStr"/>
+      <c r="P71" s="3" t="inlineStr"/>
+      <c r="Q71" s="3" t="inlineStr"/>
+      <c r="R71" s="3" t="inlineStr"/>
+      <c r="S71" s="3" t="inlineStr"/>
+      <c r="T71" s="3" t="inlineStr"/>
+      <c r="U71" s="3" t="inlineStr"/>
+      <c r="V71" s="3" t="inlineStr"/>
+      <c r="W71" s="3" t="inlineStr"/>
+      <c r="X71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>周日001</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>悉尼FC</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>7:1</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>珀斯</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr"/>
+      <c r="N72" s="3" t="inlineStr"/>
+      <c r="O72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="inlineStr"/>
+      <c r="Q72" s="3" t="inlineStr"/>
+      <c r="R72" s="3" t="inlineStr"/>
+      <c r="S72" s="3" t="inlineStr"/>
+      <c r="T72" s="3" t="inlineStr"/>
+      <c r="U72" s="3" t="inlineStr"/>
+      <c r="V72" s="3" t="inlineStr"/>
+      <c r="W72" s="3" t="inlineStr"/>
+      <c r="X72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="3" t="n"/>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
+      <c r="M73" s="3" t="inlineStr"/>
+      <c r="N73" s="3" t="inlineStr"/>
+      <c r="O73" s="3" t="inlineStr"/>
+      <c r="P73" s="3" t="inlineStr"/>
+      <c r="Q73" s="3" t="inlineStr"/>
+      <c r="R73" s="3" t="inlineStr"/>
+      <c r="S73" s="3" t="inlineStr"/>
+      <c r="T73" s="3" t="inlineStr"/>
+      <c r="U73" s="3" t="inlineStr"/>
+      <c r="V73" s="3" t="inlineStr"/>
+      <c r="W73" s="3" t="inlineStr"/>
+      <c r="X73" s="3" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>周日002</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>广岛三箭</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>川崎前锋</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K74" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L74" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr"/>
+      <c r="N74" s="3" t="inlineStr"/>
+      <c r="O74" s="3" t="inlineStr"/>
+      <c r="P74" s="3" t="inlineStr"/>
+      <c r="Q74" s="3" t="inlineStr"/>
+      <c r="R74" s="3" t="inlineStr"/>
+      <c r="S74" s="3" t="inlineStr"/>
+      <c r="T74" s="3" t="inlineStr"/>
+      <c r="U74" s="3" t="inlineStr"/>
+      <c r="V74" s="3" t="inlineStr"/>
+      <c r="W74" s="3" t="inlineStr"/>
+      <c r="X74" s="3" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="n"/>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
+      <c r="M75" s="3" t="inlineStr"/>
+      <c r="N75" s="3" t="inlineStr"/>
+      <c r="O75" s="3" t="inlineStr"/>
+      <c r="P75" s="3" t="inlineStr"/>
+      <c r="Q75" s="3" t="inlineStr"/>
+      <c r="R75" s="3" t="inlineStr"/>
+      <c r="S75" s="3" t="inlineStr"/>
+      <c r="T75" s="3" t="inlineStr"/>
+      <c r="U75" s="3" t="inlineStr"/>
+      <c r="V75" s="3" t="inlineStr"/>
+      <c r="W75" s="3" t="inlineStr"/>
+      <c r="X75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>周日003</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>柏太阳神</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>鸟栖沙岩</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr"/>
+      <c r="N76" s="3" t="inlineStr"/>
+      <c r="O76" s="3" t="inlineStr"/>
+      <c r="P76" s="3" t="inlineStr"/>
+      <c r="Q76" s="3" t="inlineStr"/>
+      <c r="R76" s="3" t="inlineStr"/>
+      <c r="S76" s="3" t="inlineStr"/>
+      <c r="T76" s="3" t="inlineStr"/>
+      <c r="U76" s="3" t="inlineStr"/>
+      <c r="V76" s="3" t="inlineStr"/>
+      <c r="W76" s="3" t="inlineStr"/>
+      <c r="X76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="3" t="n"/>
+      <c r="F77" s="3" t="n"/>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+      <c r="I77" s="3" t="n"/>
+      <c r="J77" s="3" t="n"/>
+      <c r="K77" s="3" t="n"/>
+      <c r="L77" s="3" t="n"/>
+      <c r="M77" s="3" t="inlineStr"/>
+      <c r="N77" s="3" t="inlineStr"/>
+      <c r="O77" s="3" t="inlineStr"/>
+      <c r="P77" s="3" t="inlineStr"/>
+      <c r="Q77" s="3" t="inlineStr"/>
+      <c r="R77" s="3" t="inlineStr"/>
+      <c r="S77" s="3" t="inlineStr"/>
+      <c r="T77" s="3" t="inlineStr"/>
+      <c r="U77" s="3" t="inlineStr"/>
+      <c r="V77" s="3" t="inlineStr"/>
+      <c r="W77" s="3" t="inlineStr"/>
+      <c r="X77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>周日004</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>墨尔本城</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>西部联</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr"/>
+      <c r="N78" s="3" t="inlineStr"/>
+      <c r="O78" s="3" t="inlineStr"/>
+      <c r="P78" s="3" t="inlineStr"/>
+      <c r="Q78" s="3" t="inlineStr"/>
+      <c r="R78" s="3" t="inlineStr"/>
+      <c r="S78" s="3" t="inlineStr"/>
+      <c r="T78" s="3" t="inlineStr"/>
+      <c r="U78" s="3" t="inlineStr"/>
+      <c r="V78" s="3" t="inlineStr"/>
+      <c r="W78" s="3" t="inlineStr"/>
+      <c r="X78" s="3" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="3" t="n"/>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
+      <c r="M79" s="3" t="inlineStr"/>
+      <c r="N79" s="3" t="inlineStr"/>
+      <c r="O79" s="3" t="inlineStr"/>
+      <c r="P79" s="3" t="inlineStr"/>
+      <c r="Q79" s="3" t="inlineStr"/>
+      <c r="R79" s="3" t="inlineStr"/>
+      <c r="S79" s="3" t="inlineStr"/>
+      <c r="T79" s="3" t="inlineStr"/>
+      <c r="U79" s="3" t="inlineStr"/>
+      <c r="V79" s="3" t="inlineStr"/>
+      <c r="W79" s="3" t="inlineStr"/>
+      <c r="X79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>周日005</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>蔚山现代</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>济州联</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr"/>
+      <c r="N80" s="3" t="inlineStr"/>
+      <c r="O80" s="3" t="inlineStr"/>
+      <c r="P80" s="3" t="inlineStr"/>
+      <c r="Q80" s="3" t="inlineStr"/>
+      <c r="R80" s="3" t="inlineStr"/>
+      <c r="S80" s="3" t="inlineStr"/>
+      <c r="T80" s="3" t="inlineStr"/>
+      <c r="U80" s="3" t="inlineStr"/>
+      <c r="V80" s="3" t="inlineStr"/>
+      <c r="W80" s="3" t="inlineStr"/>
+      <c r="X80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="3" t="n"/>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
+      <c r="M81" s="3" t="inlineStr"/>
+      <c r="N81" s="3" t="inlineStr"/>
+      <c r="O81" s="3" t="inlineStr"/>
+      <c r="P81" s="3" t="inlineStr"/>
+      <c r="Q81" s="3" t="inlineStr"/>
+      <c r="R81" s="3" t="inlineStr"/>
+      <c r="S81" s="3" t="inlineStr"/>
+      <c r="T81" s="3" t="inlineStr"/>
+      <c r="U81" s="3" t="inlineStr"/>
+      <c r="V81" s="3" t="inlineStr"/>
+      <c r="W81" s="3" t="inlineStr"/>
+      <c r="X81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>周日006</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>奈梅亨</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>0:3</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>阿尔克马</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L82" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="M82" s="3" t="inlineStr"/>
+      <c r="N82" s="3" t="inlineStr"/>
+      <c r="O82" s="3" t="inlineStr"/>
+      <c r="P82" s="3" t="inlineStr"/>
+      <c r="Q82" s="3" t="inlineStr"/>
+      <c r="R82" s="3" t="inlineStr"/>
+      <c r="S82" s="3" t="inlineStr"/>
+      <c r="T82" s="3" t="inlineStr"/>
+      <c r="U82" s="3" t="inlineStr"/>
+      <c r="V82" s="3" t="inlineStr"/>
+      <c r="W82" s="3" t="inlineStr"/>
+      <c r="X82" s="3" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="3" t="n"/>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
+      <c r="M83" s="3" t="inlineStr"/>
+      <c r="N83" s="3" t="inlineStr"/>
+      <c r="O83" s="3" t="inlineStr"/>
+      <c r="P83" s="3" t="inlineStr"/>
+      <c r="Q83" s="3" t="inlineStr"/>
+      <c r="R83" s="3" t="inlineStr"/>
+      <c r="S83" s="3" t="inlineStr"/>
+      <c r="T83" s="3" t="inlineStr"/>
+      <c r="U83" s="3" t="inlineStr"/>
+      <c r="V83" s="3" t="inlineStr"/>
+      <c r="W83" s="3" t="inlineStr"/>
+      <c r="X83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>周日007</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>埃因FC</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>特尔斯达</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr"/>
+      <c r="N84" s="3" t="inlineStr"/>
+      <c r="O84" s="3" t="inlineStr"/>
+      <c r="P84" s="3" t="inlineStr"/>
+      <c r="Q84" s="3" t="inlineStr"/>
+      <c r="R84" s="3" t="inlineStr"/>
+      <c r="S84" s="3" t="inlineStr"/>
+      <c r="T84" s="3" t="inlineStr"/>
+      <c r="U84" s="3" t="inlineStr"/>
+      <c r="V84" s="3" t="inlineStr"/>
+      <c r="W84" s="3" t="inlineStr"/>
+      <c r="X84" s="3" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+      <c r="I85" s="3" t="n"/>
+      <c r="J85" s="3" t="n"/>
+      <c r="K85" s="3" t="n"/>
+      <c r="L85" s="3" t="n"/>
+      <c r="M85" s="3" t="inlineStr"/>
+      <c r="N85" s="3" t="inlineStr"/>
+      <c r="O85" s="3" t="inlineStr"/>
+      <c r="P85" s="3" t="inlineStr"/>
+      <c r="Q85" s="3" t="inlineStr"/>
+      <c r="R85" s="3" t="inlineStr"/>
+      <c r="S85" s="3" t="inlineStr"/>
+      <c r="T85" s="3" t="inlineStr"/>
+      <c r="U85" s="3" t="inlineStr"/>
+      <c r="V85" s="3" t="inlineStr"/>
+      <c r="W85" s="3" t="inlineStr"/>
+      <c r="X85" s="3" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>周日008</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>梅斯</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>里尔</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="H86" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I86" s="3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="L86" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr"/>
+      <c r="N86" s="3" t="inlineStr"/>
+      <c r="O86" s="3" t="inlineStr"/>
+      <c r="P86" s="3" t="inlineStr"/>
+      <c r="Q86" s="3" t="inlineStr"/>
+      <c r="R86" s="3" t="inlineStr"/>
+      <c r="S86" s="3" t="inlineStr"/>
+      <c r="T86" s="3" t="inlineStr"/>
+      <c r="U86" s="3" t="inlineStr"/>
+      <c r="V86" s="3" t="inlineStr"/>
+      <c r="W86" s="3" t="inlineStr"/>
+      <c r="X86" s="3" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="3" t="n"/>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="M87" s="3" t="inlineStr"/>
+      <c r="N87" s="3" t="inlineStr"/>
+      <c r="O87" s="3" t="inlineStr"/>
+      <c r="P87" s="3" t="inlineStr"/>
+      <c r="Q87" s="3" t="inlineStr"/>
+      <c r="R87" s="3" t="inlineStr"/>
+      <c r="S87" s="3" t="inlineStr"/>
+      <c r="T87" s="3" t="inlineStr"/>
+      <c r="U87" s="3" t="inlineStr"/>
+      <c r="V87" s="3" t="inlineStr"/>
+      <c r="W87" s="3" t="inlineStr"/>
+      <c r="X87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>周日009</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>纽伦堡</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>卡斯鲁厄</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="K88" s="3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L88" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr"/>
+      <c r="N88" s="3" t="inlineStr"/>
+      <c r="O88" s="3" t="inlineStr"/>
+      <c r="P88" s="3" t="inlineStr"/>
+      <c r="Q88" s="3" t="inlineStr"/>
+      <c r="R88" s="3" t="inlineStr"/>
+      <c r="S88" s="3" t="inlineStr"/>
+      <c r="T88" s="3" t="inlineStr"/>
+      <c r="U88" s="3" t="inlineStr"/>
+      <c r="V88" s="3" t="inlineStr"/>
+      <c r="W88" s="3" t="inlineStr"/>
+      <c r="X88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+      <c r="E89" s="3" t="n"/>
+      <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
+      <c r="H89" s="3" t="n"/>
+      <c r="I89" s="3" t="n"/>
+      <c r="J89" s="3" t="n"/>
+      <c r="K89" s="3" t="n"/>
+      <c r="L89" s="3" t="n"/>
+      <c r="M89" s="3" t="inlineStr"/>
+      <c r="N89" s="3" t="inlineStr"/>
+      <c r="O89" s="3" t="inlineStr"/>
+      <c r="P89" s="3" t="inlineStr"/>
+      <c r="Q89" s="3" t="inlineStr"/>
+      <c r="R89" s="3" t="inlineStr"/>
+      <c r="S89" s="3" t="inlineStr"/>
+      <c r="T89" s="3" t="inlineStr"/>
+      <c r="U89" s="3" t="inlineStr"/>
+      <c r="V89" s="3" t="inlineStr"/>
+      <c r="W89" s="3" t="inlineStr"/>
+      <c r="X89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>周日010</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>加的斯</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>马洛卡</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G90" s="4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="I90" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="K90" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr"/>
+      <c r="N90" s="3" t="inlineStr"/>
+      <c r="O90" s="3" t="inlineStr"/>
+      <c r="P90" s="3" t="inlineStr"/>
+      <c r="Q90" s="3" t="inlineStr"/>
+      <c r="R90" s="3" t="inlineStr"/>
+      <c r="S90" s="3" t="inlineStr"/>
+      <c r="T90" s="3" t="inlineStr"/>
+      <c r="U90" s="3" t="inlineStr"/>
+      <c r="V90" s="3" t="inlineStr"/>
+      <c r="W90" s="3" t="inlineStr"/>
+      <c r="X90" s="3" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="3" t="n"/>
+      <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
+      <c r="H91" s="3" t="n"/>
+      <c r="I91" s="3" t="n"/>
+      <c r="J91" s="3" t="n"/>
+      <c r="K91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
+      <c r="M91" s="3" t="inlineStr"/>
+      <c r="N91" s="3" t="inlineStr"/>
+      <c r="O91" s="3" t="inlineStr"/>
+      <c r="P91" s="3" t="inlineStr"/>
+      <c r="Q91" s="3" t="inlineStr"/>
+      <c r="R91" s="3" t="inlineStr"/>
+      <c r="S91" s="3" t="inlineStr"/>
+      <c r="T91" s="3" t="inlineStr"/>
+      <c r="U91" s="3" t="inlineStr"/>
+      <c r="V91" s="3" t="inlineStr"/>
+      <c r="W91" s="3" t="inlineStr"/>
+      <c r="X91" s="3" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>周日011</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>马尔默</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>5:0</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>索尔纳</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I92" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J92" s="4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="L92" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="M92" s="3" t="inlineStr"/>
+      <c r="N92" s="3" t="inlineStr"/>
+      <c r="O92" s="3" t="inlineStr"/>
+      <c r="P92" s="3" t="inlineStr"/>
+      <c r="Q92" s="3" t="inlineStr"/>
+      <c r="R92" s="3" t="inlineStr"/>
+      <c r="S92" s="3" t="inlineStr"/>
+      <c r="T92" s="3" t="inlineStr"/>
+      <c r="U92" s="3" t="inlineStr"/>
+      <c r="V92" s="3" t="inlineStr"/>
+      <c r="W92" s="3" t="inlineStr"/>
+      <c r="X92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+      <c r="I93" s="3" t="n"/>
+      <c r="J93" s="3" t="n"/>
+      <c r="K93" s="3" t="n"/>
+      <c r="L93" s="3" t="n"/>
+      <c r="M93" s="3" t="inlineStr"/>
+      <c r="N93" s="3" t="inlineStr"/>
+      <c r="O93" s="3" t="inlineStr"/>
+      <c r="P93" s="3" t="inlineStr"/>
+      <c r="Q93" s="3" t="inlineStr"/>
+      <c r="R93" s="3" t="inlineStr"/>
+      <c r="S93" s="3" t="inlineStr"/>
+      <c r="T93" s="3" t="inlineStr"/>
+      <c r="U93" s="3" t="inlineStr"/>
+      <c r="V93" s="3" t="inlineStr"/>
+      <c r="W93" s="3" t="inlineStr"/>
+      <c r="X93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>周日012</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>热刺</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:3</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>阿森纳</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I94" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J94" s="4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K94" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="M94" s="3" t="inlineStr"/>
+      <c r="N94" s="3" t="inlineStr"/>
+      <c r="O94" s="3" t="inlineStr"/>
+      <c r="P94" s="3" t="inlineStr"/>
+      <c r="Q94" s="3" t="inlineStr"/>
+      <c r="R94" s="3" t="inlineStr"/>
+      <c r="S94" s="3" t="inlineStr"/>
+      <c r="T94" s="3" t="inlineStr"/>
+      <c r="U94" s="3" t="inlineStr"/>
+      <c r="V94" s="3" t="inlineStr"/>
+      <c r="W94" s="3" t="inlineStr"/>
+      <c r="X94" s="3" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+      <c r="E95" s="3" t="n"/>
+      <c r="F95" s="3" t="n"/>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+      <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
+      <c r="L95" s="3" t="n"/>
+      <c r="M95" s="3" t="inlineStr"/>
+      <c r="N95" s="3" t="inlineStr"/>
+      <c r="O95" s="3" t="inlineStr"/>
+      <c r="P95" s="3" t="inlineStr"/>
+      <c r="Q95" s="3" t="inlineStr"/>
+      <c r="R95" s="3" t="inlineStr"/>
+      <c r="S95" s="3" t="inlineStr"/>
+      <c r="T95" s="3" t="inlineStr"/>
+      <c r="U95" s="3" t="inlineStr"/>
+      <c r="V95" s="3" t="inlineStr"/>
+      <c r="W95" s="3" t="inlineStr"/>
+      <c r="X95" s="3" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>周日013</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>伯恩茅斯</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>布赖顿</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="K96" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr"/>
+      <c r="N96" s="3" t="inlineStr"/>
+      <c r="O96" s="3" t="inlineStr"/>
+      <c r="P96" s="3" t="inlineStr"/>
+      <c r="Q96" s="3" t="inlineStr"/>
+      <c r="R96" s="3" t="inlineStr"/>
+      <c r="S96" s="3" t="inlineStr"/>
+      <c r="T96" s="3" t="inlineStr"/>
+      <c r="U96" s="3" t="inlineStr"/>
+      <c r="V96" s="3" t="inlineStr"/>
+      <c r="W96" s="3" t="inlineStr"/>
+      <c r="X96" s="3" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+      <c r="I97" s="3" t="n"/>
+      <c r="J97" s="3" t="n"/>
+      <c r="K97" s="3" t="n"/>
+      <c r="L97" s="3" t="n"/>
+      <c r="M97" s="3" t="inlineStr"/>
+      <c r="N97" s="3" t="inlineStr"/>
+      <c r="O97" s="3" t="inlineStr"/>
+      <c r="P97" s="3" t="inlineStr"/>
+      <c r="Q97" s="3" t="inlineStr"/>
+      <c r="R97" s="3" t="inlineStr"/>
+      <c r="S97" s="3" t="inlineStr"/>
+      <c r="T97" s="3" t="inlineStr"/>
+      <c r="U97" s="3" t="inlineStr"/>
+      <c r="V97" s="3" t="inlineStr"/>
+      <c r="W97" s="3" t="inlineStr"/>
+      <c r="X97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>周日014</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>博洛尼亚</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>乌迪内斯</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="L98" s="3" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="M98" s="3" t="inlineStr"/>
+      <c r="N98" s="3" t="inlineStr"/>
+      <c r="O98" s="3" t="inlineStr"/>
+      <c r="P98" s="3" t="inlineStr"/>
+      <c r="Q98" s="3" t="inlineStr"/>
+      <c r="R98" s="3" t="inlineStr"/>
+      <c r="S98" s="3" t="inlineStr"/>
+      <c r="T98" s="3" t="inlineStr"/>
+      <c r="U98" s="3" t="inlineStr"/>
+      <c r="V98" s="3" t="inlineStr"/>
+      <c r="W98" s="3" t="inlineStr"/>
+      <c r="X98" s="3" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+      <c r="I99" s="3" t="n"/>
+      <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
+      <c r="L99" s="3" t="n"/>
+      <c r="M99" s="3" t="inlineStr"/>
+      <c r="N99" s="3" t="inlineStr"/>
+      <c r="O99" s="3" t="inlineStr"/>
+      <c r="P99" s="3" t="inlineStr"/>
+      <c r="Q99" s="3" t="inlineStr"/>
+      <c r="R99" s="3" t="inlineStr"/>
+      <c r="S99" s="3" t="inlineStr"/>
+      <c r="T99" s="3" t="inlineStr"/>
+      <c r="U99" s="3" t="inlineStr"/>
+      <c r="V99" s="3" t="inlineStr"/>
+      <c r="W99" s="3" t="inlineStr"/>
+      <c r="X99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>周日015</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>斯特拉斯</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>1:3</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>尼斯</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G100" s="3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H100" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K100" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="L100" s="3" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="M100" s="3" t="inlineStr"/>
+      <c r="N100" s="3" t="inlineStr"/>
+      <c r="O100" s="3" t="inlineStr"/>
+      <c r="P100" s="3" t="inlineStr"/>
+      <c r="Q100" s="3" t="inlineStr"/>
+      <c r="R100" s="3" t="inlineStr"/>
+      <c r="S100" s="3" t="inlineStr"/>
+      <c r="T100" s="3" t="inlineStr"/>
+      <c r="U100" s="3" t="inlineStr"/>
+      <c r="V100" s="3" t="inlineStr"/>
+      <c r="W100" s="3" t="inlineStr"/>
+      <c r="X100" s="3" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="3" t="n"/>
+      <c r="F101" s="3" t="n"/>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+      <c r="I101" s="3" t="n"/>
+      <c r="J101" s="3" t="n"/>
+      <c r="K101" s="3" t="n"/>
+      <c r="L101" s="3" t="n"/>
+      <c r="M101" s="3" t="inlineStr"/>
+      <c r="N101" s="3" t="inlineStr"/>
+      <c r="O101" s="3" t="inlineStr"/>
+      <c r="P101" s="3" t="inlineStr"/>
+      <c r="Q101" s="3" t="inlineStr"/>
+      <c r="R101" s="3" t="inlineStr"/>
+      <c r="S101" s="3" t="inlineStr"/>
+      <c r="T101" s="3" t="inlineStr"/>
+      <c r="U101" s="3" t="inlineStr"/>
+      <c r="V101" s="3" t="inlineStr"/>
+      <c r="W101" s="3" t="inlineStr"/>
+      <c r="X101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>周日016</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>门兴</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>柏林联合</t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I102" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="K102" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L102" s="3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="M102" s="3" t="inlineStr"/>
+      <c r="N102" s="3" t="inlineStr"/>
+      <c r="O102" s="3" t="inlineStr"/>
+      <c r="P102" s="3" t="inlineStr"/>
+      <c r="Q102" s="3" t="inlineStr"/>
+      <c r="R102" s="3" t="inlineStr"/>
+      <c r="S102" s="3" t="inlineStr"/>
+      <c r="T102" s="3" t="inlineStr"/>
+      <c r="U102" s="3" t="inlineStr"/>
+      <c r="V102" s="3" t="inlineStr"/>
+      <c r="W102" s="3" t="inlineStr"/>
+      <c r="X102" s="3" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+      <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="K103" s="3" t="n"/>
+      <c r="L103" s="3" t="n"/>
+      <c r="M103" s="3" t="inlineStr"/>
+      <c r="N103" s="3" t="inlineStr"/>
+      <c r="O103" s="3" t="inlineStr"/>
+      <c r="P103" s="3" t="inlineStr"/>
+      <c r="Q103" s="3" t="inlineStr"/>
+      <c r="R103" s="3" t="inlineStr"/>
+      <c r="S103" s="3" t="inlineStr"/>
+      <c r="T103" s="3" t="inlineStr"/>
+      <c r="U103" s="3" t="inlineStr"/>
+      <c r="V103" s="3" t="inlineStr"/>
+      <c r="W103" s="3" t="inlineStr"/>
+      <c r="X103" s="3" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>周日017</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>格拉纳达</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>奥萨苏纳</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I104" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="J104" s="3" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="K104" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="L104" s="3" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="M104" s="3" t="inlineStr"/>
+      <c r="N104" s="3" t="inlineStr"/>
+      <c r="O104" s="3" t="inlineStr"/>
+      <c r="P104" s="3" t="inlineStr"/>
+      <c r="Q104" s="3" t="inlineStr"/>
+      <c r="R104" s="3" t="inlineStr"/>
+      <c r="S104" s="3" t="inlineStr"/>
+      <c r="T104" s="3" t="inlineStr"/>
+      <c r="U104" s="3" t="inlineStr"/>
+      <c r="V104" s="3" t="inlineStr"/>
+      <c r="W104" s="3" t="inlineStr"/>
+      <c r="X104" s="3" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+      <c r="I105" s="3" t="n"/>
+      <c r="J105" s="3" t="n"/>
+      <c r="K105" s="3" t="n"/>
+      <c r="L105" s="3" t="n"/>
+      <c r="M105" s="3" t="inlineStr"/>
+      <c r="N105" s="3" t="inlineStr"/>
+      <c r="O105" s="3" t="inlineStr"/>
+      <c r="P105" s="3" t="inlineStr"/>
+      <c r="Q105" s="3" t="inlineStr"/>
+      <c r="R105" s="3" t="inlineStr"/>
+      <c r="S105" s="3" t="inlineStr"/>
+      <c r="T105" s="3" t="inlineStr"/>
+      <c r="U105" s="3" t="inlineStr"/>
+      <c r="V105" s="3" t="inlineStr"/>
+      <c r="W105" s="3" t="inlineStr"/>
+      <c r="X105" s="3" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>周日018</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>赫根</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:2</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>北雪平</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G106" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="H106" s="4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I106" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J106" s="3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="K106" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="L106" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="M106" s="3" t="inlineStr"/>
+      <c r="N106" s="3" t="inlineStr"/>
+      <c r="O106" s="3" t="inlineStr"/>
+      <c r="P106" s="3" t="inlineStr"/>
+      <c r="Q106" s="3" t="inlineStr"/>
+      <c r="R106" s="3" t="inlineStr"/>
+      <c r="S106" s="3" t="inlineStr"/>
+      <c r="T106" s="3" t="inlineStr"/>
+      <c r="U106" s="3" t="inlineStr"/>
+      <c r="V106" s="3" t="inlineStr"/>
+      <c r="W106" s="3" t="inlineStr"/>
+      <c r="X106" s="3" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+      <c r="E107" s="3" t="n"/>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+      <c r="I107" s="3" t="n"/>
+      <c r="J107" s="3" t="n"/>
+      <c r="K107" s="3" t="n"/>
+      <c r="L107" s="3" t="n"/>
+      <c r="M107" s="3" t="inlineStr"/>
+      <c r="N107" s="3" t="inlineStr"/>
+      <c r="O107" s="3" t="inlineStr"/>
+      <c r="P107" s="3" t="inlineStr"/>
+      <c r="Q107" s="3" t="inlineStr"/>
+      <c r="R107" s="3" t="inlineStr"/>
+      <c r="S107" s="3" t="inlineStr"/>
+      <c r="T107" s="3" t="inlineStr"/>
+      <c r="U107" s="3" t="inlineStr"/>
+      <c r="V107" s="3" t="inlineStr"/>
+      <c r="W107" s="3" t="inlineStr"/>
+      <c r="X107" s="3" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>周日019</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>莫尔德</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>海于格松</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G108" s="3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I108" s="3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="K108" s="3" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L108" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M108" s="3" t="inlineStr"/>
+      <c r="N108" s="3" t="inlineStr"/>
+      <c r="O108" s="3" t="inlineStr"/>
+      <c r="P108" s="3" t="inlineStr"/>
+      <c r="Q108" s="3" t="inlineStr"/>
+      <c r="R108" s="3" t="inlineStr"/>
+      <c r="S108" s="3" t="inlineStr"/>
+      <c r="T108" s="3" t="inlineStr"/>
+      <c r="U108" s="3" t="inlineStr"/>
+      <c r="V108" s="3" t="inlineStr"/>
+      <c r="W108" s="3" t="inlineStr"/>
+      <c r="X108" s="3" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="n"/>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+      <c r="I109" s="3" t="n"/>
+      <c r="J109" s="3" t="n"/>
+      <c r="K109" s="3" t="n"/>
+      <c r="L109" s="3" t="n"/>
+      <c r="M109" s="3" t="inlineStr"/>
+      <c r="N109" s="3" t="inlineStr"/>
+      <c r="O109" s="3" t="inlineStr"/>
+      <c r="P109" s="3" t="inlineStr"/>
+      <c r="Q109" s="3" t="inlineStr"/>
+      <c r="R109" s="3" t="inlineStr"/>
+      <c r="S109" s="3" t="inlineStr"/>
+      <c r="T109" s="3" t="inlineStr"/>
+      <c r="U109" s="3" t="inlineStr"/>
+      <c r="V109" s="3" t="inlineStr"/>
+      <c r="W109" s="3" t="inlineStr"/>
+      <c r="X109" s="3" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>周日020</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>雷恩</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>4:5</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>布雷斯特</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G110" s="3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H110" s="3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I110" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="J110" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K110" s="3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="L110" s="4" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="M110" s="3" t="inlineStr"/>
+      <c r="N110" s="3" t="inlineStr"/>
+      <c r="O110" s="3" t="inlineStr"/>
+      <c r="P110" s="3" t="inlineStr"/>
+      <c r="Q110" s="3" t="inlineStr"/>
+      <c r="R110" s="3" t="inlineStr"/>
+      <c r="S110" s="3" t="inlineStr"/>
+      <c r="T110" s="3" t="inlineStr"/>
+      <c r="U110" s="3" t="inlineStr"/>
+      <c r="V110" s="3" t="inlineStr"/>
+      <c r="W110" s="3" t="inlineStr"/>
+      <c r="X110" s="3" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="n"/>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+      <c r="I111" s="3" t="n"/>
+      <c r="J111" s="3" t="n"/>
+      <c r="K111" s="3" t="n"/>
+      <c r="L111" s="3" t="n"/>
+      <c r="M111" s="3" t="inlineStr"/>
+      <c r="N111" s="3" t="inlineStr"/>
+      <c r="O111" s="3" t="inlineStr"/>
+      <c r="P111" s="3" t="inlineStr"/>
+      <c r="Q111" s="3" t="inlineStr"/>
+      <c r="R111" s="3" t="inlineStr"/>
+      <c r="S111" s="3" t="inlineStr"/>
+      <c r="T111" s="3" t="inlineStr"/>
+      <c r="U111" s="3" t="inlineStr"/>
+      <c r="V111" s="3" t="inlineStr"/>
+      <c r="W111" s="3" t="inlineStr"/>
+      <c r="X111" s="3" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>周日021</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>诺丁汉</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>0:2</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>曼城</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I112" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J112" s="3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K112" s="3" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="L112" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M112" s="3" t="inlineStr"/>
+      <c r="N112" s="3" t="inlineStr"/>
+      <c r="O112" s="3" t="inlineStr"/>
+      <c r="P112" s="3" t="inlineStr"/>
+      <c r="Q112" s="3" t="inlineStr"/>
+      <c r="R112" s="3" t="inlineStr"/>
+      <c r="S112" s="3" t="inlineStr"/>
+      <c r="T112" s="3" t="inlineStr"/>
+      <c r="U112" s="3" t="inlineStr"/>
+      <c r="V112" s="3" t="inlineStr"/>
+      <c r="W112" s="3" t="inlineStr"/>
+      <c r="X112" s="3" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="n"/>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+      <c r="E113" s="3" t="n"/>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+      <c r="I113" s="3" t="n"/>
+      <c r="J113" s="3" t="n"/>
+      <c r="K113" s="3" t="n"/>
+      <c r="L113" s="3" t="n"/>
+      <c r="M113" s="3" t="inlineStr"/>
+      <c r="N113" s="3" t="inlineStr"/>
+      <c r="O113" s="3" t="inlineStr"/>
+      <c r="P113" s="3" t="inlineStr"/>
+      <c r="Q113" s="3" t="inlineStr"/>
+      <c r="R113" s="3" t="inlineStr"/>
+      <c r="S113" s="3" t="inlineStr"/>
+      <c r="T113" s="3" t="inlineStr"/>
+      <c r="U113" s="3" t="inlineStr"/>
+      <c r="V113" s="3" t="inlineStr"/>
+      <c r="W113" s="3" t="inlineStr"/>
+      <c r="X113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>周日022</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>美因茨</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>科隆</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G114" s="4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I114" s="3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="J114" s="3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="K114" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L114" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="M114" s="3" t="inlineStr"/>
+      <c r="N114" s="3" t="inlineStr"/>
+      <c r="O114" s="3" t="inlineStr"/>
+      <c r="P114" s="3" t="inlineStr"/>
+      <c r="Q114" s="3" t="inlineStr"/>
+      <c r="R114" s="3" t="inlineStr"/>
+      <c r="S114" s="3" t="inlineStr"/>
+      <c r="T114" s="3" t="inlineStr"/>
+      <c r="U114" s="3" t="inlineStr"/>
+      <c r="V114" s="3" t="inlineStr"/>
+      <c r="W114" s="3" t="inlineStr"/>
+      <c r="X114" s="3" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="n"/>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+      <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="n"/>
+      <c r="K115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
+      <c r="M115" s="3" t="inlineStr"/>
+      <c r="N115" s="3" t="inlineStr"/>
+      <c r="O115" s="3" t="inlineStr"/>
+      <c r="P115" s="3" t="inlineStr"/>
+      <c r="Q115" s="3" t="inlineStr"/>
+      <c r="R115" s="3" t="inlineStr"/>
+      <c r="S115" s="3" t="inlineStr"/>
+      <c r="T115" s="3" t="inlineStr"/>
+      <c r="U115" s="3" t="inlineStr"/>
+      <c r="V115" s="3" t="inlineStr"/>
+      <c r="W115" s="3" t="inlineStr"/>
+      <c r="X115" s="3" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>周日023</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>那不勒斯</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>罗马</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="H116" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K116" s="3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L116" s="3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="M116" s="3" t="inlineStr"/>
+      <c r="N116" s="3" t="inlineStr"/>
+      <c r="O116" s="3" t="inlineStr"/>
+      <c r="P116" s="3" t="inlineStr"/>
+      <c r="Q116" s="3" t="inlineStr"/>
+      <c r="R116" s="3" t="inlineStr"/>
+      <c r="S116" s="3" t="inlineStr"/>
+      <c r="T116" s="3" t="inlineStr"/>
+      <c r="U116" s="3" t="inlineStr"/>
+      <c r="V116" s="3" t="inlineStr"/>
+      <c r="W116" s="3" t="inlineStr"/>
+      <c r="X116" s="3" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n"/>
+      <c r="B117" s="3" t="n"/>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+      <c r="E117" s="3" t="n"/>
+      <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+      <c r="I117" s="3" t="n"/>
+      <c r="J117" s="3" t="n"/>
+      <c r="K117" s="3" t="n"/>
+      <c r="L117" s="3" t="n"/>
+      <c r="M117" s="3" t="inlineStr"/>
+      <c r="N117" s="3" t="inlineStr"/>
+      <c r="O117" s="3" t="inlineStr"/>
+      <c r="P117" s="3" t="inlineStr"/>
+      <c r="Q117" s="3" t="inlineStr"/>
+      <c r="R117" s="3" t="inlineStr"/>
+      <c r="S117" s="3" t="inlineStr"/>
+      <c r="T117" s="3" t="inlineStr"/>
+      <c r="U117" s="3" t="inlineStr"/>
+      <c r="V117" s="3" t="inlineStr"/>
+      <c r="W117" s="3" t="inlineStr"/>
+      <c r="X117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>周日024</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>亚特兰大</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>恩波利</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I118" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="J118" s="3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="K118" s="3" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="L118" s="3" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="M118" s="3" t="inlineStr"/>
+      <c r="N118" s="3" t="inlineStr"/>
+      <c r="O118" s="3" t="inlineStr"/>
+      <c r="P118" s="3" t="inlineStr"/>
+      <c r="Q118" s="3" t="inlineStr"/>
+      <c r="R118" s="3" t="inlineStr"/>
+      <c r="S118" s="3" t="inlineStr"/>
+      <c r="T118" s="3" t="inlineStr"/>
+      <c r="U118" s="3" t="inlineStr"/>
+      <c r="V118" s="3" t="inlineStr"/>
+      <c r="W118" s="3" t="inlineStr"/>
+      <c r="X118" s="3" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n"/>
+      <c r="B119" s="3" t="n"/>
+      <c r="C119" s="3" t="n"/>
+      <c r="D119" s="3" t="n"/>
+      <c r="E119" s="3" t="n"/>
+      <c r="F119" s="3" t="n"/>
+      <c r="G119" s="3" t="n"/>
+      <c r="H119" s="3" t="n"/>
+      <c r="I119" s="3" t="n"/>
+      <c r="J119" s="3" t="n"/>
+      <c r="K119" s="3" t="n"/>
+      <c r="L119" s="3" t="n"/>
+      <c r="M119" s="3" t="inlineStr"/>
+      <c r="N119" s="3" t="inlineStr"/>
+      <c r="O119" s="3" t="inlineStr"/>
+      <c r="P119" s="3" t="inlineStr"/>
+      <c r="Q119" s="3" t="inlineStr"/>
+      <c r="R119" s="3" t="inlineStr"/>
+      <c r="S119" s="3" t="inlineStr"/>
+      <c r="T119" s="3" t="inlineStr"/>
+      <c r="U119" s="3" t="inlineStr"/>
+      <c r="V119" s="3" t="inlineStr"/>
+      <c r="W119" s="3" t="inlineStr"/>
+      <c r="X119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>周日025</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>比利亚雷</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>巴列卡诺</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G120" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I120" s="3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="J120" s="3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="K120" s="3" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="L120" s="3" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="M120" s="3" t="inlineStr"/>
+      <c r="N120" s="3" t="inlineStr"/>
+      <c r="O120" s="3" t="inlineStr"/>
+      <c r="P120" s="3" t="inlineStr"/>
+      <c r="Q120" s="3" t="inlineStr"/>
+      <c r="R120" s="3" t="inlineStr"/>
+      <c r="S120" s="3" t="inlineStr"/>
+      <c r="T120" s="3" t="inlineStr"/>
+      <c r="U120" s="3" t="inlineStr"/>
+      <c r="V120" s="3" t="inlineStr"/>
+      <c r="W120" s="3" t="inlineStr"/>
+      <c r="X120" s="3" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n"/>
+      <c r="B121" s="3" t="n"/>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+      <c r="E121" s="3" t="n"/>
+      <c r="F121" s="3" t="n"/>
+      <c r="G121" s="3" t="n"/>
+      <c r="H121" s="3" t="n"/>
+      <c r="I121" s="3" t="n"/>
+      <c r="J121" s="3" t="n"/>
+      <c r="K121" s="3" t="n"/>
+      <c r="L121" s="3" t="n"/>
+      <c r="M121" s="3" t="inlineStr"/>
+      <c r="N121" s="3" t="inlineStr"/>
+      <c r="O121" s="3" t="inlineStr"/>
+      <c r="P121" s="3" t="inlineStr"/>
+      <c r="Q121" s="3" t="inlineStr"/>
+      <c r="R121" s="3" t="inlineStr"/>
+      <c r="S121" s="3" t="inlineStr"/>
+      <c r="T121" s="3" t="inlineStr"/>
+      <c r="U121" s="3" t="inlineStr"/>
+      <c r="V121" s="3" t="inlineStr"/>
+      <c r="W121" s="3" t="inlineStr"/>
+      <c r="X121" s="3" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>周日026</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>里昂</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>3:2</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>摩纳哥</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I122" s="3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="K122" s="3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="L122" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="M122" s="3" t="inlineStr"/>
+      <c r="N122" s="3" t="inlineStr"/>
+      <c r="O122" s="3" t="inlineStr"/>
+      <c r="P122" s="3" t="inlineStr"/>
+      <c r="Q122" s="3" t="inlineStr"/>
+      <c r="R122" s="3" t="inlineStr"/>
+      <c r="S122" s="3" t="inlineStr"/>
+      <c r="T122" s="3" t="inlineStr"/>
+      <c r="U122" s="3" t="inlineStr"/>
+      <c r="V122" s="3" t="inlineStr"/>
+      <c r="W122" s="3" t="inlineStr"/>
+      <c r="X122" s="3" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n"/>
+      <c r="B123" s="3" t="n"/>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+      <c r="E123" s="3" t="n"/>
+      <c r="F123" s="3" t="n"/>
+      <c r="G123" s="3" t="n"/>
+      <c r="H123" s="3" t="n"/>
+      <c r="I123" s="3" t="n"/>
+      <c r="J123" s="3" t="n"/>
+      <c r="K123" s="3" t="n"/>
+      <c r="L123" s="3" t="n"/>
+      <c r="M123" s="3" t="inlineStr"/>
+      <c r="N123" s="3" t="inlineStr"/>
+      <c r="O123" s="3" t="inlineStr"/>
+      <c r="P123" s="3" t="inlineStr"/>
+      <c r="Q123" s="3" t="inlineStr"/>
+      <c r="R123" s="3" t="inlineStr"/>
+      <c r="S123" s="3" t="inlineStr"/>
+      <c r="T123" s="3" t="inlineStr"/>
+      <c r="U123" s="3" t="inlineStr"/>
+      <c r="V123" s="3" t="inlineStr"/>
+      <c r="W123" s="3" t="inlineStr"/>
+      <c r="X123" s="3" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>周日027</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>达姆施塔</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>0:1</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>海登海姆</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G124" s="3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I124" s="3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K124" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="L124" s="3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="M124" s="3" t="inlineStr"/>
+      <c r="N124" s="3" t="inlineStr"/>
+      <c r="O124" s="3" t="inlineStr"/>
+      <c r="P124" s="3" t="inlineStr"/>
+      <c r="Q124" s="3" t="inlineStr"/>
+      <c r="R124" s="3" t="inlineStr"/>
+      <c r="S124" s="3" t="inlineStr"/>
+      <c r="T124" s="3" t="inlineStr"/>
+      <c r="U124" s="3" t="inlineStr"/>
+      <c r="V124" s="3" t="inlineStr"/>
+      <c r="W124" s="3" t="inlineStr"/>
+      <c r="X124" s="3" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n"/>
+      <c r="B125" s="3" t="n"/>
+      <c r="C125" s="3" t="n"/>
+      <c r="D125" s="3" t="n"/>
+      <c r="E125" s="3" t="n"/>
+      <c r="F125" s="3" t="n"/>
+      <c r="G125" s="3" t="n"/>
+      <c r="H125" s="3" t="n"/>
+      <c r="I125" s="3" t="n"/>
+      <c r="J125" s="3" t="n"/>
+      <c r="K125" s="3" t="n"/>
+      <c r="L125" s="3" t="n"/>
+      <c r="M125" s="3" t="inlineStr"/>
+      <c r="N125" s="3" t="inlineStr"/>
+      <c r="O125" s="3" t="inlineStr"/>
+      <c r="P125" s="3" t="inlineStr"/>
+      <c r="Q125" s="3" t="inlineStr"/>
+      <c r="R125" s="3" t="inlineStr"/>
+      <c r="S125" s="3" t="inlineStr"/>
+      <c r="T125" s="3" t="inlineStr"/>
+      <c r="U125" s="3" t="inlineStr"/>
+      <c r="V125" s="3" t="inlineStr"/>
+      <c r="W125" s="3" t="inlineStr"/>
+      <c r="X125" s="3" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>周日028</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>佛罗伦萨</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>5:1</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>萨索洛</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G126" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="H126" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I126" s="3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J126" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K126" s="4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="L126" s="3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="M126" s="3" t="inlineStr"/>
+      <c r="N126" s="3" t="inlineStr"/>
+      <c r="O126" s="3" t="inlineStr"/>
+      <c r="P126" s="3" t="inlineStr"/>
+      <c r="Q126" s="3" t="inlineStr"/>
+      <c r="R126" s="3" t="inlineStr"/>
+      <c r="S126" s="3" t="inlineStr"/>
+      <c r="T126" s="3" t="inlineStr"/>
+      <c r="U126" s="3" t="inlineStr"/>
+      <c r="V126" s="3" t="inlineStr"/>
+      <c r="W126" s="3" t="inlineStr"/>
+      <c r="X126" s="3" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n"/>
+      <c r="B127" s="3" t="n"/>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+      <c r="E127" s="3" t="n"/>
+      <c r="F127" s="3" t="n"/>
+      <c r="G127" s="3" t="n"/>
+      <c r="H127" s="3" t="n"/>
+      <c r="I127" s="3" t="n"/>
+      <c r="J127" s="3" t="n"/>
+      <c r="K127" s="3" t="n"/>
+      <c r="L127" s="3" t="n"/>
+      <c r="M127" s="3" t="inlineStr"/>
+      <c r="N127" s="3" t="inlineStr"/>
+      <c r="O127" s="3" t="inlineStr"/>
+      <c r="P127" s="3" t="inlineStr"/>
+      <c r="Q127" s="3" t="inlineStr"/>
+      <c r="R127" s="3" t="inlineStr"/>
+      <c r="S127" s="3" t="inlineStr"/>
+      <c r="T127" s="3" t="inlineStr"/>
+      <c r="U127" s="3" t="inlineStr"/>
+      <c r="V127" s="3" t="inlineStr"/>
+      <c r="W127" s="3" t="inlineStr"/>
+      <c r="X127" s="3" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>周日029</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>贝蒂斯</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>塞维利亚</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="H128" s="3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I128" s="3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K128" s="3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="L128" s="3" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="M128" s="3" t="inlineStr"/>
+      <c r="N128" s="3" t="inlineStr"/>
+      <c r="O128" s="3" t="inlineStr"/>
+      <c r="P128" s="3" t="inlineStr"/>
+      <c r="Q128" s="3" t="inlineStr"/>
+      <c r="R128" s="3" t="inlineStr"/>
+      <c r="S128" s="3" t="inlineStr"/>
+      <c r="T128" s="3" t="inlineStr"/>
+      <c r="U128" s="3" t="inlineStr"/>
+      <c r="V128" s="3" t="inlineStr"/>
+      <c r="W128" s="3" t="inlineStr"/>
+      <c r="X128" s="3" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n"/>
+      <c r="B129" s="3" t="n"/>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="3" t="n"/>
+      <c r="G129" s="3" t="n"/>
+      <c r="H129" s="3" t="n"/>
+      <c r="I129" s="3" t="n"/>
+      <c r="J129" s="3" t="n"/>
+      <c r="K129" s="3" t="n"/>
+      <c r="L129" s="3" t="n"/>
+      <c r="M129" s="3" t="inlineStr"/>
+      <c r="N129" s="3" t="inlineStr"/>
+      <c r="O129" s="3" t="inlineStr"/>
+      <c r="P129" s="3" t="inlineStr"/>
+      <c r="Q129" s="3" t="inlineStr"/>
+      <c r="R129" s="3" t="inlineStr"/>
+      <c r="S129" s="3" t="inlineStr"/>
+      <c r="T129" s="3" t="inlineStr"/>
+      <c r="U129" s="3" t="inlineStr"/>
+      <c r="V129" s="3" t="inlineStr"/>
+      <c r="W129" s="3" t="inlineStr"/>
+      <c r="X129" s="3" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>周日030</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>波尔图</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>里斯本</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G130" s="3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="H130" s="3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K130" s="3" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L130" s="3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="M130" s="3" t="inlineStr"/>
+      <c r="N130" s="3" t="inlineStr"/>
+      <c r="O130" s="3" t="inlineStr"/>
+      <c r="P130" s="3" t="inlineStr"/>
+      <c r="Q130" s="3" t="inlineStr"/>
+      <c r="R130" s="3" t="inlineStr"/>
+      <c r="S130" s="3" t="inlineStr"/>
+      <c r="T130" s="3" t="inlineStr"/>
+      <c r="U130" s="3" t="inlineStr"/>
+      <c r="V130" s="3" t="inlineStr"/>
+      <c r="W130" s="3" t="inlineStr"/>
+      <c r="X130" s="3" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n"/>
+      <c r="B131" s="3" t="n"/>
+      <c r="C131" s="3" t="n"/>
+      <c r="D131" s="3" t="n"/>
+      <c r="E131" s="3" t="n"/>
+      <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="n"/>
+      <c r="H131" s="3" t="n"/>
+      <c r="I131" s="3" t="n"/>
+      <c r="J131" s="3" t="n"/>
+      <c r="K131" s="3" t="n"/>
+      <c r="L131" s="3" t="n"/>
+      <c r="M131" s="3" t="inlineStr"/>
+      <c r="N131" s="3" t="inlineStr"/>
+      <c r="O131" s="3" t="inlineStr"/>
+      <c r="P131" s="3" t="inlineStr"/>
+      <c r="Q131" s="3" t="inlineStr"/>
+      <c r="R131" s="3" t="inlineStr"/>
+      <c r="S131" s="3" t="inlineStr"/>
+      <c r="T131" s="3" t="inlineStr"/>
+      <c r="U131" s="3" t="inlineStr"/>
+      <c r="V131" s="3" t="inlineStr"/>
+      <c r="W131" s="3" t="inlineStr"/>
+      <c r="X131" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="780">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2162,6 +7062,55 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2178,6 +7127,55 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -2194,6 +7192,55 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2210,6 +7257,55 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2226,6 +7322,55 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E130:E131"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -2242,6 +7387,55 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="F130:F131"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -2258,6 +7452,55 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -2274,6 +7517,55 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H130:H131"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -2290,6 +7582,55 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="I130:I131"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -2306,6 +7647,55 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="J130:J131"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -2322,6 +7712,55 @@
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="K130:K131"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -2338,6 +7777,55 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="L130:L131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
